--- a/outputs/comparative_results/final_impact_changes_per_SSP.xlsx
+++ b/outputs/comparative_results/final_impact_changes_per_SSP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1145ed5f6157c99b/Documentos/GitHub/plca-NMC-oxide-BM-PhD/outputs/comparative_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{8757CA70-F726-46F0-B8E1-514F68DC5970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D1F5433-D130-4EFE-8264-6BDF58D2FFC5}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{8757CA70-F726-46F0-B8E1-514F68DC5970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71CB132A-191E-4806-BDAC-BEBB7F889BB5}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{EC1C100F-81C5-48DE-BE2B-CFC31180682C}"/>
   </bookViews>
@@ -17,7 +17,25 @@
     <sheet name="SSP2" sheetId="2" r:id="rId2"/>
     <sheet name="SSP5" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SSP1'!$A$1:$Q$379</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SSP2'!$A$1:$Q$379</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'SSP5'!$A$1:$Q$379</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -220,6 +238,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -698,11 +719,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1079,18 +1102,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971EC034-B2EB-42D4-B66C-463E0A3B8548}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R150" sqref="R150"/>
+      <selection activeCell="B390" sqref="B390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="61.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="0" hidden="1" customWidth="1"/>
-    <col min="15" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="13" width="8.7265625" customWidth="1"/>
+    <col min="15" max="16" width="8.7265625" customWidth="1"/>
     <col min="17" max="17" width="12.90625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1603,7 +1627,7 @@
         <v>6.0135578119968602E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1622,7 +1646,7 @@
       <c r="F11">
         <v>1.0623778454252801E-2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="4">
         <v>1.8352259665503301E-2</v>
       </c>
       <c r="H11">
@@ -2521,7 +2545,7 @@
         <v>4.9756096013098195E-7</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -2540,7 +2564,7 @@
       <c r="F29">
         <v>1.3192700987840301E-2</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="4">
         <v>6.7258322639410006E-2</v>
       </c>
       <c r="H29">
@@ -3439,7 +3463,7 @@
         <v>6.6708145613603095E-7</v>
       </c>
     </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -3458,7 +3482,7 @@
       <c r="F47">
         <v>0.122245531623832</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="4">
         <v>0.15318410873171601</v>
       </c>
       <c r="H47">
@@ -4357,7 +4381,7 @@
         <v>5.7888634537484003E-7</v>
       </c>
     </row>
-    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>40</v>
       </c>
@@ -4376,7 +4400,7 @@
       <c r="F65">
         <v>1.2534762327636099E-3</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="4">
         <v>2.4949003424477902E-2</v>
       </c>
       <c r="H65">
@@ -5275,7 +5299,7 @@
         <v>1.2083899560239E-6</v>
       </c>
     </row>
-    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>42</v>
       </c>
@@ -5294,7 +5318,7 @@
       <c r="F83">
         <v>2.0263045860957601E-2</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="4">
         <v>5.6113174054101801E-2</v>
       </c>
       <c r="H83">
@@ -6193,7 +6217,7 @@
         <v>5.7888634537484003E-7</v>
       </c>
     </row>
-    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>40</v>
       </c>
@@ -6212,7 +6236,7 @@
       <c r="F101">
         <v>1.2534762327636099E-3</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="4">
         <v>2.4949003424477902E-2</v>
       </c>
       <c r="H101">
@@ -7111,7 +7135,7 @@
         <v>9.2226696068564707E-7</v>
       </c>
     </row>
-    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>44</v>
       </c>
@@ -7130,7 +7154,7 @@
       <c r="F119">
         <v>1.4186057833747099E-2</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="4">
         <v>4.9519776336079603E-2</v>
       </c>
       <c r="H119">
@@ -7570,7 +7594,7 @@
         <v>1.9363538424812501E-5</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>45</v>
       </c>
@@ -7621,7 +7645,7 @@
         <v>-0.88365394292100508</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>45</v>
       </c>
@@ -7672,7 +7696,7 @@
         <v>-8.5821124327589707E-7</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>45</v>
       </c>
@@ -7723,7 +7747,7 @@
         <v>-0.804456769941995</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>45</v>
       </c>
@@ -7774,7 +7798,7 @@
         <v>-1.6002450267327998E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>45</v>
       </c>
@@ -7825,7 +7849,7 @@
         <v>-0.77677356029945699</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>45</v>
       </c>
@@ -7876,7 +7900,7 @@
         <v>-0.35181936852491502</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>45</v>
       </c>
@@ -7927,7 +7951,7 @@
         <v>-0.73925755796749693</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>45</v>
       </c>
@@ -7978,7 +8002,7 @@
         <v>7.1395047618594198E-5</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>45</v>
       </c>
@@ -8048,7 +8072,7 @@
       <c r="F137" s="1">
         <v>1.99311608306551E-6</v>
       </c>
-      <c r="G137">
+      <c r="G137" s="4">
         <v>1.9420130281077E-4</v>
       </c>
       <c r="H137">
@@ -8080,7 +8104,7 @@
         <v>1.51057662545336E-7</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>45</v>
       </c>
@@ -8131,7 +8155,7 @@
         <v>-0.80687872988390497</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>45</v>
       </c>
@@ -8182,7 +8206,7 @@
         <v>4.3423416855792303E-5</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>45</v>
       </c>
@@ -8233,7 +8257,7 @@
         <v>1.16088700685826E-5</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>45</v>
       </c>
@@ -8284,7 +8308,7 @@
         <v>-1.30182823417346E-5</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>45</v>
       </c>
@@ -8335,7 +8359,7 @@
         <v>2.5380182368117601E-6</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>45</v>
       </c>
@@ -8386,7 +8410,7 @@
         <v>-1.12801026734316E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>45</v>
       </c>
@@ -8437,7 +8461,7 @@
         <v>-0.13839620468379699</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>45</v>
       </c>
@@ -8488,7 +8512,7 @@
         <v>1.47504864377245E-5</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>47</v>
       </c>
@@ -8539,7 +8563,7 @@
         <v>-6.1357219946475096E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>47</v>
       </c>
@@ -8590,7 +8614,7 @@
         <v>-4.1976579013747106E-6</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>47</v>
       </c>
@@ -8641,7 +8665,7 @@
         <v>-0.43951104097766702</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>47</v>
       </c>
@@ -8692,7 +8716,7 @@
         <v>-1.6871136888387098E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>47</v>
       </c>
@@ -8743,7 +8767,7 @@
         <v>-0.42026454187859202</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>47</v>
       </c>
@@ -8794,7 +8818,7 @@
         <v>-0.18742642880499999</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>47</v>
       </c>
@@ -8845,7 +8869,7 @@
         <v>-0.44812428304761198</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>47</v>
       </c>
@@ -8896,7 +8920,7 @@
         <v>9.040076616166459E-5</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>47</v>
       </c>
@@ -8966,7 +8990,7 @@
       <c r="F155">
         <v>-1.2545597728895E-2</v>
       </c>
-      <c r="G155">
+      <c r="G155" s="4">
         <v>-8.1792600162570894E-2</v>
       </c>
       <c r="H155">
@@ -8998,7 +9022,7 @@
         <v>8.7693435060959194E-7</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>47</v>
       </c>
@@ -9049,7 +9073,7 @@
         <v>-0.50159939316598101</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>47</v>
       </c>
@@ -9100,7 +9124,7 @@
         <v>4.0512984868286094E-5</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>47</v>
       </c>
@@ -9151,7 +9175,7 @@
         <v>4.4579069552226E-5</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>47</v>
       </c>
@@ -9202,7 +9226,7 @@
         <v>-3.12622389792238E-5</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>47</v>
       </c>
@@ -9253,7 +9277,7 @@
         <v>6.0640105416709305E-6</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>47</v>
       </c>
@@ -9304,7 +9328,7 @@
         <v>-8.1989214711149187E-6</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>47</v>
       </c>
@@ -9355,7 +9379,7 @@
         <v>-7.7265085289116508E-4</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>47</v>
       </c>
@@ -9406,7 +9430,7 @@
         <v>3.0231064174728298E-5</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>48</v>
       </c>
@@ -9457,7 +9481,7 @@
         <v>-0.42264884745720299</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>48</v>
       </c>
@@ -9508,7 +9532,7 @@
         <v>-7.93287484569305E-6</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>48</v>
       </c>
@@ -9559,7 +9583,7 @@
         <v>-0.109556410615475</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>48</v>
       </c>
@@ -9610,7 +9634,7 @@
         <v>-0.18739412294996399</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>48</v>
       </c>
@@ -9661,7 +9685,7 @@
         <v>-6.9372110611464408E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>48</v>
       </c>
@@ -9712,7 +9736,7 @@
         <v>-3.3672865354866299E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>48</v>
       </c>
@@ -9763,7 +9787,7 @@
         <v>-0.39265387447187999</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>48</v>
       </c>
@@ -9814,7 +9838,7 @@
         <v>2.3300195772904401E-4</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>48</v>
       </c>
@@ -9884,7 +9908,7 @@
       <c r="F173">
         <v>1.4220445934824901E-3</v>
       </c>
-      <c r="G173">
+      <c r="G173" s="4">
         <v>1.30890591119905E-3</v>
       </c>
       <c r="H173">
@@ -9916,7 +9940,7 @@
         <v>1.8289674747667299E-7</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>48</v>
       </c>
@@ -9967,7 +9991,7 @@
         <v>-0.44746505853789798</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>48</v>
       </c>
@@ -10018,7 +10042,7 @@
         <v>1.5401228111970801E-5</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>48</v>
       </c>
@@ -10069,7 +10093,7 @@
         <v>1.3124751286000799E-4</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>48</v>
       </c>
@@ -10120,7 +10144,7 @@
         <v>-3.2685211657756896E-6</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>48</v>
       </c>
@@ -10171,7 +10195,7 @@
         <v>1.0016092317606198E-5</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>48</v>
       </c>
@@ -10222,7 +10246,7 @@
         <v>-1.19259848248272E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>48</v>
       </c>
@@ -10273,7 +10297,7 @@
         <v>-5.8471018932475104E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>48</v>
       </c>
@@ -10324,7 +10348,7 @@
         <v>4.3549642235340897E-5</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>49</v>
       </c>
@@ -10375,7 +10399,7 @@
         <v>1.13673074056634E-4</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>49</v>
       </c>
@@ -10426,7 +10450,7 @@
         <v>-8.7159626253274703E-7</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>49</v>
       </c>
@@ -10477,7 +10501,7 @@
         <v>1.6420690451557299E-6</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>49</v>
       </c>
@@ -10528,7 +10552,7 @@
         <v>1.1442867963680199E-5</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>49</v>
       </c>
@@ -10579,7 +10603,7 @@
         <v>4.5241867989531598E-6</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>49</v>
       </c>
@@ -10630,7 +10654,7 @@
         <v>5.7592148074902998E-6</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>49</v>
       </c>
@@ -10681,7 +10705,7 @@
         <v>-0.89112306796865004</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>49</v>
       </c>
@@ -10732,7 +10756,7 @@
         <v>1.7070031628008998E-4</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>49</v>
       </c>
@@ -10802,7 +10826,7 @@
       <c r="F191" s="1">
         <v>4.7957011279E-5</v>
       </c>
-      <c r="G191">
+      <c r="G191" s="4">
         <v>2.8174305654729399</v>
       </c>
       <c r="H191">
@@ -10834,7 +10858,7 @@
         <v>6.1230997741201704E-6</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>49</v>
       </c>
@@ -10885,7 +10909,7 @@
         <v>2.3216720772367601E-6</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>49</v>
       </c>
@@ -10936,7 +10960,7 @@
         <v>6.1877586972958202E-6</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>49</v>
       </c>
@@ -10987,7 +11011,7 @@
         <v>4.3668256434470303E-6</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>49</v>
       </c>
@@ -11038,7 +11062,7 @@
         <v>-3.0882013715682803E-6</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>49</v>
       </c>
@@ -11089,7 +11113,7 @@
         <v>3.9082967500547698E-6</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>49</v>
       </c>
@@ -11140,7 +11164,7 @@
         <v>6.8575071837995096E-6</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>49</v>
       </c>
@@ -11191,7 +11215,7 @@
         <v>1.0615660317356799E-5</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>49</v>
       </c>
@@ -11242,7 +11266,7 @@
         <v>3.5293008834642499E-5</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>49</v>
       </c>
@@ -11293,7 +11317,7 @@
         <v>1.13673074056634E-4</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>49</v>
       </c>
@@ -11344,7 +11368,7 @@
         <v>-8.7159626253274703E-7</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>49</v>
       </c>
@@ -11395,7 +11419,7 @@
         <v>1.6420690451557299E-6</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>49</v>
       </c>
@@ -11446,7 +11470,7 @@
         <v>1.1442867963680199E-5</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>49</v>
       </c>
@@ -11497,7 +11521,7 @@
         <v>4.5241867989531598E-6</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>49</v>
       </c>
@@ -11548,7 +11572,7 @@
         <v>5.7592148074902998E-6</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>49</v>
       </c>
@@ -11599,7 +11623,7 @@
         <v>-0.89112306796865004</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>49</v>
       </c>
@@ -11650,7 +11674,7 @@
         <v>1.7070031628008998E-4</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>49</v>
       </c>
@@ -11720,7 +11744,7 @@
       <c r="F209" s="1">
         <v>4.7957011279E-5</v>
       </c>
-      <c r="G209">
+      <c r="G209" s="4">
         <v>2.8174305654729399</v>
       </c>
       <c r="H209">
@@ -11752,7 +11776,7 @@
         <v>6.1230997741201704E-6</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>49</v>
       </c>
@@ -11803,7 +11827,7 @@
         <v>2.3216720772367601E-6</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>49</v>
       </c>
@@ -11854,7 +11878,7 @@
         <v>6.1877586972958202E-6</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>49</v>
       </c>
@@ -11905,7 +11929,7 @@
         <v>4.3668256434470303E-6</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>49</v>
       </c>
@@ -11956,7 +11980,7 @@
         <v>-3.0882013715682803E-6</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>49</v>
       </c>
@@ -12007,7 +12031,7 @@
         <v>3.9082967500547698E-6</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>49</v>
       </c>
@@ -12058,7 +12082,7 @@
         <v>6.8575071837995096E-6</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>49</v>
       </c>
@@ -12109,7 +12133,7 @@
         <v>1.0615660317356799E-5</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>49</v>
       </c>
@@ -12160,7 +12184,7 @@
         <v>3.5293008834642499E-5</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>53</v>
       </c>
@@ -12211,7 +12235,7 @@
         <v>3.3113009420873105E-5</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>53</v>
       </c>
@@ -12262,7 +12286,7 @@
         <v>-5.2494413756676296E-6</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>53</v>
       </c>
@@ -12313,7 +12337,7 @@
         <v>4.66676943013055E-6</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>53</v>
       </c>
@@ -12364,7 +12388,7 @@
         <v>1.1107903929952202E-5</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>53</v>
       </c>
@@ -12415,7 +12439,7 @@
         <v>4.9192781334728102E-6</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>53</v>
       </c>
@@ -12466,7 +12490,7 @@
         <v>1.24985977248748E-5</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>53</v>
       </c>
@@ -12517,7 +12541,7 @@
         <v>8.0969251664519899E-6</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>53</v>
       </c>
@@ -12568,7 +12592,7 @@
         <v>4.0401975517596601E-5</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>53</v>
       </c>
@@ -12638,7 +12662,7 @@
       <c r="F227">
         <v>8.3171300612347402E-3</v>
       </c>
-      <c r="G227">
+      <c r="G227" s="4">
         <v>2.99204938947386</v>
       </c>
       <c r="H227">
@@ -12670,7 +12694,7 @@
         <v>4.8362655294420499E-6</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>53</v>
       </c>
@@ -12721,7 +12745,7 @@
         <v>4.24123697993827E-6</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>53</v>
       </c>
@@ -12772,7 +12796,7 @@
         <v>1.95928209472384E-5</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>53</v>
       </c>
@@ -12823,7 +12847,7 @@
         <v>3.2018261476691703E-5</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>53</v>
       </c>
@@ -12874,7 +12898,7 @@
         <v>-8.5168343648689398E-6</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>53</v>
       </c>
@@ -12925,7 +12949,7 @@
         <v>7.2927644383824403E-6</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>53</v>
       </c>
@@ -12976,7 +13000,7 @@
         <v>4.5214231583123798E-6</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>53</v>
       </c>
@@ -13027,7 +13051,7 @@
         <v>6.9919008016450204E-6</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>53</v>
       </c>
@@ -13078,7 +13102,7 @@
         <v>2.5278886364539197E-5</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>54</v>
       </c>
@@ -13129,7 +13153,7 @@
         <v>3.3736358466285305E-5</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>54</v>
       </c>
@@ -13180,7 +13204,7 @@
         <v>-9.7749518783718502E-8</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>54</v>
       </c>
@@ -13231,7 +13255,7 @@
         <v>1.0151119031709301E-6</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>54</v>
       </c>
@@ -13282,7 +13306,7 @@
         <v>2.5502554639782399E-5</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>54</v>
       </c>
@@ -13333,7 +13357,7 @@
         <v>2.6894909432195701E-6</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>54</v>
       </c>
@@ -13384,7 +13408,7 @@
         <v>6.0670681513208502E-6</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>54</v>
       </c>
@@ -13435,7 +13459,7 @@
         <v>3.1729984534933896E-6</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>54</v>
       </c>
@@ -13486,7 +13510,7 @@
         <v>8.4602960984056993E-5</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>54</v>
       </c>
@@ -13556,7 +13580,7 @@
       <c r="F245" s="1">
         <v>5.1687555595199901E-5</v>
       </c>
-      <c r="G245">
+      <c r="G245" s="4">
         <v>9.3287427659539297</v>
       </c>
       <c r="H245">
@@ -13588,7 +13612,7 @@
         <v>8.6835759141123909E-6</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>54</v>
       </c>
@@ -13639,7 +13663,7 @@
         <v>2.1871171354792502E-6</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>54</v>
       </c>
@@ -13690,7 +13714,7 @@
         <v>1.22794570695461E-5</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>54</v>
       </c>
@@ -13741,7 +13765,7 @@
         <v>1.0541412170494901E-6</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>54</v>
       </c>
@@ -13792,7 +13816,7 @@
         <v>-3.8837926528856297E-6</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>54</v>
       </c>
@@ -13843,7 +13867,7 @@
         <v>3.2797434744402598E-6</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>54</v>
       </c>
@@ -13894,7 +13918,7 @@
         <v>7.6298808755126393E-6</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>54</v>
       </c>
@@ -13945,7 +13969,7 @@
         <v>1.2372036885945901E-5</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>54</v>
       </c>
@@ -13996,7 +14020,7 @@
         <v>1.1411377639234299E-5</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>55</v>
       </c>
@@ -14047,7 +14071,7 @@
         <v>8.0423588251559103E-5</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>55</v>
       </c>
@@ -14098,7 +14122,7 @@
         <v>-8.4727633124614893E-6</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>55</v>
       </c>
@@ -14149,7 +14173,7 @@
         <v>-3.3831951945606405E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>55</v>
       </c>
@@ -14200,7 +14224,7 @@
         <v>1.0713121202128301E-5</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>55</v>
       </c>
@@ -14251,7 +14275,7 @@
         <v>-0.65216136718305806</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>55</v>
       </c>
@@ -14302,7 +14326,7 @@
         <v>9.0114051247525102E-6</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>55</v>
       </c>
@@ -14353,7 +14377,7 @@
         <v>-2.1933937254117398E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>55</v>
       </c>
@@ -14404,7 +14428,7 @@
         <v>8.0358649137579605E-5</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>55</v>
       </c>
@@ -14474,7 +14498,7 @@
       <c r="F263">
         <v>1.3980600742914601E-2</v>
       </c>
-      <c r="G263">
+      <c r="G263" s="4">
         <v>1.1700785028537899</v>
       </c>
       <c r="H263">
@@ -14506,7 +14530,7 @@
         <v>3.3330917906471099E-6</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>55</v>
       </c>
@@ -14557,7 +14581,7 @@
         <v>-1.21265271345489E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>55</v>
       </c>
@@ -14608,7 +14632,7 @@
         <v>9.00481048268453E-6</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>55</v>
       </c>
@@ -14659,7 +14683,7 @@
         <v>7.2367805062452094E-5</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>55</v>
       </c>
@@ -14710,7 +14734,7 @@
         <v>-1.05296045722269E-5</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>55</v>
       </c>
@@ -14761,7 +14785,7 @@
         <v>5.3653002764875105E-6</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>55</v>
       </c>
@@ -14812,7 +14836,7 @@
         <v>-0.33245577056924502</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>55</v>
       </c>
@@ -14863,7 +14887,7 @@
         <v>-3.3740017281643199E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>55</v>
       </c>
@@ -14914,7 +14938,7 @@
         <v>2.1568875099911E-5</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>55</v>
       </c>
@@ -14965,7 +14989,7 @@
         <v>8.0423588251559103E-5</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>55</v>
       </c>
@@ -15016,7 +15040,7 @@
         <v>-8.4727633124614893E-6</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>55</v>
       </c>
@@ -15067,7 +15091,7 @@
         <v>-3.3831951945606405E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>55</v>
       </c>
@@ -15118,7 +15142,7 @@
         <v>1.0713121202128301E-5</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>55</v>
       </c>
@@ -15169,7 +15193,7 @@
         <v>-0.65216136718305806</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>55</v>
       </c>
@@ -15220,7 +15244,7 @@
         <v>9.0114051247525102E-6</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>55</v>
       </c>
@@ -15271,7 +15295,7 @@
         <v>-2.1933937254117398E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>55</v>
       </c>
@@ -15322,7 +15346,7 @@
         <v>8.0358649137579605E-5</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>55</v>
       </c>
@@ -15392,7 +15416,7 @@
       <c r="F281">
         <v>1.3980600742914601E-2</v>
       </c>
-      <c r="G281">
+      <c r="G281" s="4">
         <v>1.1700785028537899</v>
       </c>
       <c r="H281">
@@ -15424,7 +15448,7 @@
         <v>3.3330917906471099E-6</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>55</v>
       </c>
@@ -15475,7 +15499,7 @@
         <v>-1.21265271345489E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>55</v>
       </c>
@@ -15526,7 +15550,7 @@
         <v>9.00481048268453E-6</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>55</v>
       </c>
@@ -15577,7 +15601,7 @@
         <v>7.2367805062452094E-5</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>55</v>
       </c>
@@ -15628,7 +15652,7 @@
         <v>-1.05296045722269E-5</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>55</v>
       </c>
@@ -15679,7 +15703,7 @@
         <v>5.3653002764875105E-6</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>55</v>
       </c>
@@ -15730,7 +15754,7 @@
         <v>-0.33245577056924502</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>55</v>
       </c>
@@ -15781,7 +15805,7 @@
         <v>-3.3740017281643199E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>55</v>
       </c>
@@ -15832,7 +15856,7 @@
         <v>2.1568875099911E-5</v>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>56</v>
       </c>
@@ -15883,7 +15907,7 @@
         <v>2.61002692609046E-4</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>56</v>
       </c>
@@ -15934,7 +15958,7 @@
         <v>-1.55249350518138E-6</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>56</v>
       </c>
@@ -15985,7 +16009,7 @@
         <v>4.53821376444674E-6</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>56</v>
       </c>
@@ -16036,7 +16060,7 @@
         <v>4.4173321453106597E-5</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>56</v>
       </c>
@@ -16087,7 +16111,7 @@
         <v>1.26409032167118E-5</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>56</v>
       </c>
@@ -16138,7 +16162,7 @@
         <v>4.99073850381925E-5</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>56</v>
       </c>
@@ -16189,7 +16213,7 @@
         <v>-9.536909397438539E-4</v>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>56</v>
       </c>
@@ -16240,7 +16264,7 @@
         <v>1.7517846846118299E-4</v>
       </c>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>56</v>
       </c>
@@ -16310,7 +16334,7 @@
       <c r="F299" s="1">
         <v>2.07736276252035E-5</v>
       </c>
-      <c r="G299" s="1">
+      <c r="G299" s="4">
         <v>4.4224913754966103E-5</v>
       </c>
       <c r="H299">
@@ -16342,7 +16366,7 @@
         <v>8.3207648438224398E-10</v>
       </c>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>56</v>
       </c>
@@ -16393,7 +16417,7 @@
         <v>7.6210773847140698E-6</v>
       </c>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>56</v>
       </c>
@@ -16444,7 +16468,7 @@
         <v>9.1428904625545598E-6</v>
       </c>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>56</v>
       </c>
@@ -16495,7 +16519,7 @@
         <v>6.9831134968303904E-6</v>
       </c>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>56</v>
       </c>
@@ -16546,7 +16570,7 @@
         <v>-4.0266798189918502E-5</v>
       </c>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>56</v>
       </c>
@@ -16597,7 +16621,7 @@
         <v>2.9289280564253E-5</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>56</v>
       </c>
@@ -16648,7 +16672,7 @@
         <v>7.7892762011755303E-6</v>
       </c>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>56</v>
       </c>
@@ -16699,7 +16723,7 @@
         <v>1.1708436584541001E-5</v>
       </c>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>56</v>
       </c>
@@ -16750,7 +16774,7 @@
         <v>1.0933992454319201E-4</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>58</v>
       </c>
@@ -16801,7 +16825,7 @@
         <v>4.82126852416087E-5</v>
       </c>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>58</v>
       </c>
@@ -16852,7 +16876,7 @@
         <v>-2.9302259864039097E-6</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>58</v>
       </c>
@@ -16903,7 +16927,7 @@
         <v>3.4769574404691602E-6</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>58</v>
       </c>
@@ -16954,7 +16978,7 @@
         <v>9.0131339108978597E-6</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>58</v>
       </c>
@@ -17005,7 +17029,7 @@
         <v>8.4477495246204602E-6</v>
       </c>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>58</v>
       </c>
@@ -17056,7 +17080,7 @@
         <v>-0.112584685687643</v>
       </c>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>58</v>
       </c>
@@ -17107,7 +17131,7 @@
         <v>3.9095270999212006E-6</v>
       </c>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>58</v>
       </c>
@@ -17158,7 +17182,7 @@
         <v>5.3540174066526403E-5</v>
       </c>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>58</v>
       </c>
@@ -17228,7 +17252,7 @@
       <c r="F317">
         <v>5.1671449657248996E-3</v>
       </c>
-      <c r="G317">
+      <c r="G317" s="4">
         <v>6.4144959429036103E-3</v>
       </c>
       <c r="H317">
@@ -17260,7 +17284,7 @@
         <v>6.7261589271373701E-9</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>58</v>
       </c>
@@ -17311,7 +17335,7 @@
         <v>3.8153376916127895E-6</v>
       </c>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>58</v>
       </c>
@@ -17362,7 +17386,7 @@
         <v>1.2376992287421701E-5</v>
       </c>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>58</v>
       </c>
@@ -17413,7 +17437,7 @@
         <v>3.6241614121106298E-5</v>
       </c>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>58</v>
       </c>
@@ -17464,7 +17488,7 @@
         <v>-3.5183667552729499E-6</v>
       </c>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>58</v>
       </c>
@@ -17515,7 +17539,7 @@
         <v>3.3798598079215401E-6</v>
       </c>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>58</v>
       </c>
@@ -17566,7 +17590,7 @@
         <v>4.1056257057414601E-6</v>
       </c>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>58</v>
       </c>
@@ -17617,7 +17641,7 @@
         <v>6.3067819129392002E-6</v>
       </c>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>58</v>
       </c>
@@ -17668,7 +17692,7 @@
         <v>3.1656533910506799E-5</v>
       </c>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>58</v>
       </c>
@@ -17719,7 +17743,7 @@
         <v>4.82126852416087E-5</v>
       </c>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>58</v>
       </c>
@@ -17770,7 +17794,7 @@
         <v>-2.9302259864039097E-6</v>
       </c>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>58</v>
       </c>
@@ -17821,7 +17845,7 @@
         <v>3.4769574404691602E-6</v>
       </c>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>58</v>
       </c>
@@ -17872,7 +17896,7 @@
         <v>9.0131339108978597E-6</v>
       </c>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>58</v>
       </c>
@@ -17923,7 +17947,7 @@
         <v>8.4477495246204602E-6</v>
       </c>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>58</v>
       </c>
@@ -17974,7 +17998,7 @@
         <v>-0.112584685687643</v>
       </c>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>58</v>
       </c>
@@ -18025,7 +18049,7 @@
         <v>3.9095270999212006E-6</v>
       </c>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>58</v>
       </c>
@@ -18076,7 +18100,7 @@
         <v>5.3540174066526403E-5</v>
       </c>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>58</v>
       </c>
@@ -18146,7 +18170,7 @@
       <c r="F335">
         <v>5.1671449657248996E-3</v>
       </c>
-      <c r="G335">
+      <c r="G335" s="4">
         <v>6.4144959429036103E-3</v>
       </c>
       <c r="H335">
@@ -18178,7 +18202,7 @@
         <v>6.7261589271373701E-9</v>
       </c>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>58</v>
       </c>
@@ -18229,7 +18253,7 @@
         <v>3.8153376916127895E-6</v>
       </c>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>58</v>
       </c>
@@ -18280,7 +18304,7 @@
         <v>1.2376992287421701E-5</v>
       </c>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>58</v>
       </c>
@@ -18331,7 +18355,7 @@
         <v>3.6241614121106298E-5</v>
       </c>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>58</v>
       </c>
@@ -18382,7 +18406,7 @@
         <v>-3.5183667552729499E-6</v>
       </c>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>58</v>
       </c>
@@ -18433,7 +18457,7 @@
         <v>3.3798598079215401E-6</v>
       </c>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>58</v>
       </c>
@@ -18484,7 +18508,7 @@
         <v>4.1056257057414601E-6</v>
       </c>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>58</v>
       </c>
@@ -18535,7 +18559,7 @@
         <v>6.3067819129392002E-6</v>
       </c>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>58</v>
       </c>
@@ -18586,7 +18610,7 @@
         <v>3.1656533910506799E-5</v>
       </c>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>59</v>
       </c>
@@ -18637,7 +18661,7 @@
         <v>3.1844085543255499E-5</v>
       </c>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>59</v>
       </c>
@@ -18688,7 +18712,7 @@
         <v>-4.18819945480208E-6</v>
       </c>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>59</v>
       </c>
@@ -18739,7 +18763,7 @@
         <v>4.3576729735406102E-6</v>
       </c>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>59</v>
       </c>
@@ -18790,7 +18814,7 @@
         <v>-0.67611016586452299</v>
       </c>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>59</v>
       </c>
@@ -18841,7 +18865,7 @@
         <v>1.12439288231414E-5</v>
       </c>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>59</v>
       </c>
@@ -18892,7 +18916,7 @@
         <v>7.9456299792468603E-6</v>
       </c>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>59</v>
       </c>
@@ -18943,7 +18967,7 @@
         <v>8.3204300235095701E-6</v>
       </c>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>59</v>
       </c>
@@ -18994,7 +19018,7 @@
         <v>5.8473330969235295E-5</v>
       </c>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>59</v>
       </c>
@@ -19064,7 +19088,7 @@
       <c r="F353">
         <v>2.8248594844413298E-3</v>
       </c>
-      <c r="G353">
+      <c r="G353" s="4">
         <v>7.7869315258954699E-3</v>
       </c>
       <c r="H353">
@@ -19096,7 +19120,7 @@
         <v>1.11082068591714E-8</v>
       </c>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>59</v>
       </c>
@@ -19147,7 +19171,7 @@
         <v>3.93583904516603E-6</v>
       </c>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>59</v>
       </c>
@@ -19198,7 +19222,7 @@
         <v>1.4439426545145199E-5</v>
       </c>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>59</v>
       </c>
@@ -19249,7 +19273,7 @@
         <v>5.2264285352894206E-5</v>
       </c>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>59</v>
       </c>
@@ -19300,7 +19324,7 @@
         <v>-1.55438826645593E-6</v>
       </c>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>59</v>
       </c>
@@ -19351,7 +19375,7 @@
         <v>4.7379550711212896E-6</v>
       </c>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>59</v>
       </c>
@@ -19402,7 +19426,7 @@
         <v>-5.1540465418742097E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>59</v>
       </c>
@@ -19453,7 +19477,7 @@
         <v>-7.7281812566394201E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>59</v>
       </c>
@@ -19504,7 +19528,7 @@
         <v>2.6653935040776801E-5</v>
       </c>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>60</v>
       </c>
@@ -19555,7 +19579,7 @@
         <v>7.3057961306748304E-5</v>
       </c>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>60</v>
       </c>
@@ -19606,7 +19630,7 @@
         <v>-4.9709648716777997E-6</v>
       </c>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>60</v>
       </c>
@@ -19657,7 +19681,7 @@
         <v>-1.6945979580080199E-2</v>
       </c>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>60</v>
       </c>
@@ -19708,7 +19732,7 @@
         <v>-0.721985911406548</v>
       </c>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>60</v>
       </c>
@@ -19759,7 +19783,7 @@
         <v>1.6411324739813401E-5</v>
       </c>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>60</v>
       </c>
@@ -19810,7 +19834,7 @@
         <v>1.3522147159292702E-5</v>
       </c>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>60</v>
       </c>
@@ -19861,7 +19885,7 @@
         <v>-3.0271174979621299E-2</v>
       </c>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>60</v>
       </c>
@@ -19912,7 +19936,7 @@
         <v>7.8554411540210297E-5</v>
       </c>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>60</v>
       </c>
@@ -19982,7 +20006,7 @@
       <c r="F371">
         <v>1.58170714875893E-3</v>
       </c>
-      <c r="G371">
+      <c r="G371" s="4">
         <v>3.70530671174329E-3</v>
       </c>
       <c r="H371">
@@ -20014,7 +20038,7 @@
         <v>1.1329459799857901E-8</v>
       </c>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>60</v>
       </c>
@@ -20065,7 +20089,7 @@
         <v>-3.6233116482227101E-2</v>
       </c>
     </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>60</v>
       </c>
@@ -20116,7 +20140,7 @@
         <v>1.97878590411448E-5</v>
       </c>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>60</v>
       </c>
@@ -20167,7 +20191,7 @@
         <v>5.5855826126673905E-5</v>
       </c>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>60</v>
       </c>
@@ -20218,7 +20242,7 @@
         <v>-5.54971797562586E-6</v>
       </c>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>60</v>
       </c>
@@ -20269,7 +20293,7 @@
         <v>6.3284561394993902E-6</v>
       </c>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>60</v>
       </c>
@@ -20320,7 +20344,7 @@
         <v>-0.146976026283065</v>
       </c>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>60</v>
       </c>
@@ -20371,7 +20395,7 @@
         <v>-0.15643682807659601</v>
       </c>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>60</v>
       </c>
@@ -20423,23 +20447,18 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q379" xr:uid="{971EC034-B2EB-42D4-B66C-463E0A3B8548}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="('ReCiPe Midpoint (H)', 'metal depletion', 'MDP')"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="M1:M1048576">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
@@ -20454,6 +20473,18 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -20475,17 +20506,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988ABF5B-632F-4DFF-82FB-80E06CE7C07C}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q2:Q19"/>
+      <selection activeCell="G11" sqref="G11:G371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="61.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="12" width="8.7265625" customWidth="1"/>
     <col min="17" max="17" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
@@ -20536,7 +20568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -20587,7 +20619,7 @@
         <v>-0.45261912111112701</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -20638,7 +20670,7 @@
         <v>-2.84572971599317E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -20689,7 +20721,7 @@
         <v>-0.93293104604291099</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -20740,7 +20772,7 @@
         <v>-0.12099230612138999</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -20791,7 +20823,7 @@
         <v>-4.4335700575315898E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -20842,7 +20874,7 @@
         <v>-1.31372283270409E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -20893,7 +20925,7 @@
         <v>-0.95879573226831794</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -20944,7 +20976,7 @@
         <v>3.7500947003721301E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -21014,7 +21046,7 @@
       <c r="F11">
         <v>6.4059862062251201E-3</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="5">
         <v>1.10673922985427E-2</v>
       </c>
       <c r="H11">
@@ -21046,7 +21078,7 @@
         <v>5.1723259276107501E-8</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -21097,7 +21129,7 @@
         <v>-0.96420402857743692</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -21148,7 +21180,7 @@
         <v>9.2278569895909396E-8</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -21199,7 +21231,7 @@
         <v>4.7803912602228903E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -21250,7 +21282,7 @@
         <v>-1.0238406249385401E-6</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -21301,7 +21333,7 @@
         <v>5.9501042311005301E-7</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -21352,7 +21384,7 @@
         <v>-1.93898689953526E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -21403,7 +21435,7 @@
         <v>-2.1871138406057401E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -21454,7 +21486,7 @@
         <v>2.4981507681864898E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -21505,7 +21537,7 @@
         <v>-7.5841334144465505E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -21556,7 +21588,7 @@
         <v>-3.2220105742664E-7</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -21607,7 +21639,7 @@
         <v>-2.0530027772086502E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -21658,7 +21690,7 @@
         <v>-5.4818419702678601E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -21709,7 +21741,7 @@
         <v>-7.1445335432240794E-7</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -21760,7 +21792,7 @@
         <v>-9.2425276006835507E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -21811,7 +21843,7 @@
         <v>-0.16028639027066499</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -21862,7 +21894,7 @@
         <v>1.0535321700615399E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -21932,7 +21964,7 @@
       <c r="F29">
         <v>1.1659935903651299E-2</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="5">
         <v>5.94589774195E-2</v>
       </c>
       <c r="H29">
@@ -21964,7 +21996,7 @@
         <v>2.4325731854540901E-8</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -22015,7 +22047,7 @@
         <v>-0.220799065123094</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -22066,7 +22098,7 @@
         <v>4.44502317198391E-8</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -22117,7 +22149,7 @@
         <v>4.6287888105389598E-6</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -22168,7 +22200,7 @@
         <v>-1.2067702462559199E-6</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -22219,7 +22251,7 @@
         <v>-1.1624099645501899E-7</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -22270,7 +22302,7 @@
         <v>-7.5066977976894292E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -22321,7 +22353,7 @@
         <v>-1.5084121183939699E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -22372,7 +22404,7 @@
         <v>7.7252605789368509E-6</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -22423,7 +22455,7 @@
         <v>-2.1088224204474301E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -22474,7 +22506,7 @@
         <v>-4.9588476004780397E-7</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -22525,7 +22557,7 @@
         <v>-1.5189452825454799E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -22576,7 +22608,7 @@
         <v>-4.5179668270419501E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -22627,7 +22659,7 @@
         <v>1.0913494175035499E-7</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -22678,7 +22710,7 @@
         <v>-5.2017657286640392E-6</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -22729,7 +22761,7 @@
         <v>-1.3699382708633502E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -22780,7 +22812,7 @@
         <v>1.3771581826063E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -22850,7 +22882,7 @@
       <c r="F47">
         <v>0.130394271587704</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="5">
         <v>0.163473080070281</v>
       </c>
       <c r="H47">
@@ -22882,7 +22914,7 @@
         <v>3.8234719545171499E-8</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>39</v>
       </c>
@@ -22933,7 +22965,7 @@
         <v>-1.6894646520995498E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>39</v>
       </c>
@@ -22984,7 +23016,7 @@
         <v>4.5867083611206196E-8</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -23035,7 +23067,7 @@
         <v>6.8341620917688996E-6</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>39</v>
       </c>
@@ -23086,7 +23118,7 @@
         <v>-9.5056282496841508E-7</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -23137,7 +23169,7 @@
         <v>-6.4313777166091701E-8</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -23188,7 +23220,7 @@
         <v>-4.1070386919383003E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>39</v>
       </c>
@@ -23239,7 +23271,7 @@
         <v>-7.9462639729461495E-5</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>39</v>
       </c>
@@ -23290,7 +23322,7 @@
         <v>5.0774624277849499E-6</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>40</v>
       </c>
@@ -23341,7 +23373,7 @@
         <v>1.0587135326751701E-5</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>40</v>
       </c>
@@ -23392,7 +23424,7 @@
         <v>-1.0876735730924701E-6</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>40</v>
       </c>
@@ -23443,7 +23475,7 @@
         <v>5.7198088752485804E-7</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>40</v>
       </c>
@@ -23494,7 +23526,7 @@
         <v>3.8500347646852598E-7</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>40</v>
       </c>
@@ -23545,7 +23577,7 @@
         <v>8.0567402047648701E-7</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>40</v>
       </c>
@@ -23596,7 +23628,7 @@
         <v>-2.7258392727169604E-6</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>40</v>
       </c>
@@ -23647,7 +23679,7 @@
         <v>1.10097897882965E-6</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>40</v>
       </c>
@@ -23698,7 +23730,7 @@
         <v>1.0301157660137499E-5</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>40</v>
       </c>
@@ -23768,7 +23800,7 @@
       <c r="F65">
         <v>1.5671916261163999E-3</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="5">
         <v>3.1197978900575001E-2</v>
       </c>
       <c r="H65">
@@ -23800,7 +23832,7 @@
         <v>1.6889818795669199E-8</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>40</v>
       </c>
@@ -23851,7 +23883,7 @@
         <v>3.5201250703664701E-7</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>40</v>
       </c>
@@ -23902,7 +23934,7 @@
         <v>5.1327010934798495E-8</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -23953,7 +23985,7 @@
         <v>4.0604777998431899E-6</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>40</v>
       </c>
@@ -24004,7 +24036,7 @@
         <v>-1.4897821184689501E-6</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>40</v>
       </c>
@@ -24055,7 +24087,7 @@
         <v>4.0639296251865302E-7</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>40</v>
       </c>
@@ -24106,7 +24138,7 @@
         <v>2.1092017901125302E-8</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -24157,7 +24189,7 @@
         <v>3.8011141773597299E-8</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>40</v>
       </c>
@@ -24208,7 +24240,7 @@
         <v>6.0893678882578598E-6</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>42</v>
       </c>
@@ -24259,7 +24291,7 @@
         <v>1.2224647388094901E-5</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>42</v>
       </c>
@@ -24310,7 +24342,7 @@
         <v>-2.0525513075453297E-6</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>42</v>
       </c>
@@ -24361,7 +24393,7 @@
         <v>9.0227822097332906E-7</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>42</v>
       </c>
@@ -24412,7 +24444,7 @@
         <v>7.6312388919141896E-7</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>42</v>
       </c>
@@ -24463,7 +24495,7 @@
         <v>1.3241965935328801E-6</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>42</v>
       </c>
@@ -24514,7 +24546,7 @@
         <v>-3.7489019303205103E-6</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>42</v>
       </c>
@@ -24565,7 +24597,7 @@
         <v>1.25977964702705E-6</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>42</v>
       </c>
@@ -24616,7 +24648,7 @@
         <v>1.72543209254172E-5</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>42</v>
       </c>
@@ -24686,7 +24718,7 @@
       <c r="F83">
         <v>2.0401579103989299E-2</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="5">
         <v>5.6518987744200597E-2</v>
       </c>
       <c r="H83">
@@ -24718,7 +24750,7 @@
         <v>3.4265249023723797E-8</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>42</v>
       </c>
@@ -24769,7 +24801,7 @@
         <v>4.34656045873449E-7</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>42</v>
       </c>
@@ -24820,7 +24852,7 @@
         <v>1.10490037812382E-7</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>42</v>
       </c>
@@ -24871,7 +24903,7 @@
         <v>7.6398112008391192E-6</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>42</v>
       </c>
@@ -24922,7 +24954,7 @@
         <v>-6.3811458108631301E-7</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>42</v>
       </c>
@@ -24973,7 +25005,7 @@
         <v>2.76508009342535E-7</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>42</v>
       </c>
@@ -25024,7 +25056,7 @@
         <v>4.7121301186003799E-8</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>42</v>
       </c>
@@ -25075,7 +25107,7 @@
         <v>8.42021595476305E-8</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>42</v>
       </c>
@@ -25126,7 +25158,7 @@
         <v>7.3451501957322298E-6</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>40</v>
       </c>
@@ -25177,7 +25209,7 @@
         <v>1.0587135326751701E-5</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>40</v>
       </c>
@@ -25228,7 +25260,7 @@
         <v>-1.0876735730924701E-6</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>40</v>
       </c>
@@ -25279,7 +25311,7 @@
         <v>5.7198088752485804E-7</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>40</v>
       </c>
@@ -25330,7 +25362,7 @@
         <v>3.8500347646852598E-7</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>40</v>
       </c>
@@ -25381,7 +25413,7 @@
         <v>8.0567402047648701E-7</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>40</v>
       </c>
@@ -25432,7 +25464,7 @@
         <v>-2.7258392727169604E-6</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>40</v>
       </c>
@@ -25483,7 +25515,7 @@
         <v>1.10097897882965E-6</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>40</v>
       </c>
@@ -25534,7 +25566,7 @@
         <v>1.0301157660137499E-5</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>40</v>
       </c>
@@ -25604,7 +25636,7 @@
       <c r="F101">
         <v>1.5671916261163999E-3</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="5">
         <v>3.1197978900575001E-2</v>
       </c>
       <c r="H101">
@@ -25636,7 +25668,7 @@
         <v>1.6889818795669199E-8</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>40</v>
       </c>
@@ -25687,7 +25719,7 @@
         <v>3.5201250703664701E-7</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>40</v>
       </c>
@@ -25738,7 +25770,7 @@
         <v>5.1327010934798495E-8</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>40</v>
       </c>
@@ -25789,7 +25821,7 @@
         <v>4.0604777998431899E-6</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>40</v>
       </c>
@@ -25840,7 +25872,7 @@
         <v>-1.4897821184689501E-6</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>40</v>
       </c>
@@ -25891,7 +25923,7 @@
         <v>4.0639296251865302E-7</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>40</v>
       </c>
@@ -25942,7 +25974,7 @@
         <v>2.1092017901125302E-8</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>40</v>
       </c>
@@ -25993,7 +26025,7 @@
         <v>3.8011141773597299E-8</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>40</v>
       </c>
@@ -26044,7 +26076,7 @@
         <v>6.0893678882578598E-6</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>44</v>
       </c>
@@ -26095,7 +26127,7 @@
         <v>-0.16416841833807999</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>44</v>
       </c>
@@ -26146,7 +26178,7 @@
         <v>-1.76150364486815E-6</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>44</v>
       </c>
@@ -26197,7 +26229,7 @@
         <v>-0.70743569821503105</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>44</v>
       </c>
@@ -26248,7 +26280,7 @@
         <v>-5.03825993336601E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>44</v>
       </c>
@@ -26299,7 +26331,7 @@
         <v>8.1157402429088392E-7</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>44</v>
       </c>
@@ -26350,7 +26382,7 @@
         <v>-3.9790414771157995E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>44</v>
       </c>
@@ -26401,7 +26433,7 @@
         <v>-0.89886157554686208</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>44</v>
       </c>
@@ -26452,7 +26484,7 @@
         <v>7.0844204046238705E-6</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>44</v>
       </c>
@@ -26522,7 +26554,7 @@
       <c r="F119">
         <v>1.22599266879248E-2</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="5">
         <v>4.2810812256039901E-2</v>
       </c>
       <c r="H119">
@@ -26554,7 +26586,7 @@
         <v>3.3671703138643498E-8</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>44</v>
       </c>
@@ -26605,7 +26637,7 @@
         <v>-0.93622381159567103</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>44</v>
       </c>
@@ -26656,7 +26688,7 @@
         <v>7.5579131948444394E-8</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>44</v>
       </c>
@@ -26707,7 +26739,7 @@
         <v>5.2499467649447197E-6</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>44</v>
       </c>
@@ -26758,7 +26790,7 @@
         <v>-7.46997102609725E-7</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>44</v>
       </c>
@@ -26809,7 +26841,7 @@
         <v>1.05997879717989E-7</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>44</v>
       </c>
@@ -26860,7 +26892,7 @@
         <v>-2.69464489418527E-5</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>44</v>
       </c>
@@ -26911,7 +26943,7 @@
         <v>-3.1380478141481098E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>44</v>
       </c>
@@ -26962,7 +26994,7 @@
         <v>7.05781155105E-6</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>45</v>
       </c>
@@ -27013,7 +27045,7 @@
         <v>-0.89179652576026203</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>45</v>
       </c>
@@ -27064,7 +27096,7 @@
         <v>-8.8504839801717403E-7</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>45</v>
       </c>
@@ -27115,7 +27147,7 @@
         <v>-0.80484479148468191</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>45</v>
       </c>
@@ -27166,7 +27198,7 @@
         <v>-1.6004765219300401E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>45</v>
       </c>
@@ -27217,7 +27249,7 @@
         <v>-0.78152730446950203</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>45</v>
       </c>
@@ -27268,7 +27300,7 @@
         <v>-0.35202769323417299</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>45</v>
       </c>
@@ -27319,7 +27351,7 @@
         <v>-0.74049550369876793</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>45</v>
       </c>
@@ -27370,7 +27402,7 @@
         <v>7.7561927460223508E-6</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>45</v>
       </c>
@@ -27440,7 +27472,7 @@
       <c r="F137">
         <v>-1.62350943942124E-4</v>
       </c>
-      <c r="G137">
+      <c r="G137" s="5">
         <v>-1.58222270246638E-2</v>
       </c>
       <c r="H137">
@@ -27472,7 +27504,7 @@
         <v>6.29822065042334E-8</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>45</v>
       </c>
@@ -27523,7 +27555,7 @@
         <v>-0.80845931563211093</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>45</v>
       </c>
@@ -27574,7 +27606,7 @@
         <v>5.78550418763867E-7</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>45</v>
       </c>
@@ -27625,7 +27657,7 @@
         <v>3.5355764045827396E-6</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>45</v>
       </c>
@@ -27676,7 +27708,7 @@
         <v>-9.3824763300886999E-7</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>45</v>
       </c>
@@ -27727,7 +27759,7 @@
         <v>1.67733468878772E-7</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>45</v>
       </c>
@@ -27778,7 +27810,7 @@
         <v>-1.1280645498634501E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>45</v>
       </c>
@@ -27829,7 +27861,7 @@
         <v>-0.13839842602565899</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>45</v>
       </c>
@@ -27880,7 +27912,7 @@
         <v>5.59121830631115E-6</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>47</v>
       </c>
@@ -27931,7 +27963,7 @@
         <v>-7.3531258690211496E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>47</v>
       </c>
@@ -27982,7 +28014,7 @@
         <v>-4.3570538909820597E-6</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>47</v>
       </c>
@@ -28033,7 +28065,7 @@
         <v>-0.44018895636535099</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>47</v>
       </c>
@@ -28084,7 +28116,7 @@
         <v>-1.6901795230505098E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>47</v>
       </c>
@@ -28135,7 +28167,7 @@
         <v>-0.43858393605954704</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>47</v>
       </c>
@@ -28186,7 +28218,7 @@
         <v>-0.188414797919841</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>47</v>
       </c>
@@ -28237,7 +28269,7 @@
         <v>-0.45150628543022103</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>47</v>
       </c>
@@ -28288,7 +28320,7 @@
         <v>1.8271185279132801E-5</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>47</v>
       </c>
@@ -28358,7 +28390,7 @@
       <c r="F155">
         <v>-1.45331404929649E-2</v>
       </c>
-      <c r="G155">
+      <c r="G155" s="5">
         <v>-9.4907339884944E-2</v>
       </c>
       <c r="H155">
@@ -28390,7 +28422,7 @@
         <v>3.6519224018469101E-7</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>47</v>
       </c>
@@ -28441,7 +28473,7 @@
         <v>-0.50841250087640699</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>47</v>
       </c>
@@ -28492,7 +28524,7 @@
         <v>1.6230240724723899E-6</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>47</v>
       </c>
@@ -28543,7 +28575,7 @@
         <v>1.3348161618025302E-5</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>47</v>
       </c>
@@ -28594,7 +28626,7 @@
         <v>-2.9872007094056097E-6</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>47</v>
       </c>
@@ -28645,7 +28677,7 @@
         <v>3.8925279929102798E-7</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>47</v>
       </c>
@@ -28696,7 +28728,7 @@
         <v>-8.3650497020788787E-6</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>47</v>
       </c>
@@ -28747,7 +28779,7 @@
         <v>-7.7302809519599598E-4</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>47</v>
       </c>
@@ -28798,7 +28830,7 @@
         <v>1.1482877196708999E-5</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>48</v>
       </c>
@@ -28849,7 +28881,7 @@
         <v>-0.6542394996656461</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>48</v>
       </c>
@@ -28900,7 +28932,7 @@
         <v>-9.2054758633253094E-6</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>48</v>
       </c>
@@ -28951,7 +28983,7 @@
         <v>-0.11053071383233201</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>48</v>
       </c>
@@ -29002,7 +29034,7 @@
         <v>-0.188030371021984</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>48</v>
       </c>
@@ -29053,7 +29085,7 @@
         <v>-7.73388723269475E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>48</v>
       </c>
@@ -29104,7 +29136,7 @@
         <v>-3.5794916302640499E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>48</v>
       </c>
@@ -29155,7 +29187,7 @@
         <v>-0.39845389848863905</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>48</v>
       </c>
@@ -29206,7 +29238,7 @@
         <v>7.5495134512379908E-5</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>48</v>
       </c>
@@ -29276,7 +29308,7 @@
       <c r="F173">
         <v>-2.9234548922317999E-2</v>
       </c>
-      <c r="G173">
+      <c r="G173" s="5">
         <v>-2.6920357541092201E-2</v>
       </c>
       <c r="H173">
@@ -29308,7 +29340,7 @@
         <v>7.6339954105004993E-8</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>48</v>
       </c>
@@ -29359,7 +29391,7 @@
         <v>-0.45622608821542798</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>48</v>
       </c>
@@ -29410,7 +29442,7 @@
         <v>2.0217774788555599E-7</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>48</v>
       </c>
@@ -29461,7 +29493,7 @@
         <v>3.9434296240119501E-5</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>48</v>
       </c>
@@ -29512,7 +29544,7 @@
         <v>-2.3755704746441999E-7</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>48</v>
       </c>
@@ -29563,7 +29595,7 @@
         <v>4.8645728536023102E-7</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>48</v>
       </c>
@@ -29614,7 +29646,7 @@
         <v>-1.19885474043323E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>48</v>
       </c>
@@ -29665,7 +29697,7 @@
         <v>-5.8629843021664602E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>48</v>
       </c>
@@ -29716,7 +29748,7 @@
         <v>1.6369025876290499E-5</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>49</v>
       </c>
@@ -29767,7 +29799,7 @@
         <v>9.1572012187839303E-5</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>49</v>
       </c>
@@ -29818,7 +29850,7 @@
         <v>-1.02762360511654E-6</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>49</v>
       </c>
@@ -29869,7 +29901,7 @@
         <v>4.1343677101401899E-7</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>49</v>
       </c>
@@ -29920,7 +29952,7 @@
         <v>3.9642789903382394E-6</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>49</v>
       </c>
@@ -29971,7 +30003,7 @@
         <v>6.8767132941793809E-7</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>49</v>
       </c>
@@ -30022,7 +30054,7 @@
         <v>-2.90949451681399E-6</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>49</v>
       </c>
@@ -30073,7 +30105,7 @@
         <v>-0.89265767073808899</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>49</v>
       </c>
@@ -30124,7 +30156,7 @@
         <v>2.75724997590032E-5</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>49</v>
       </c>
@@ -30194,7 +30226,7 @@
       <c r="F191" s="1">
         <v>-5.1370556083999302E-6</v>
       </c>
-      <c r="G191">
+      <c r="G191" s="5">
         <v>-0.31374608121448699</v>
       </c>
       <c r="H191">
@@ -30226,7 +30258,7 @@
         <v>2.5592225061987704E-6</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>49</v>
       </c>
@@ -30277,7 +30309,7 @@
         <v>1.5246994601980599E-7</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>49</v>
       </c>
@@ -30328,7 +30360,7 @@
         <v>5.50881663885505E-8</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>49</v>
       </c>
@@ -30379,7 +30411,7 @@
         <v>1.40512241593837E-6</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>49</v>
       </c>
@@ -30430,7 +30462,7 @@
         <v>-5.9188583886537998E-7</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>49</v>
       </c>
@@ -30481,7 +30513,7 @@
         <v>-1.9899640690823601E-7</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>49</v>
       </c>
@@ -30532,7 +30564,7 @@
         <v>2.0861966750930397E-6</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>49</v>
       </c>
@@ -30583,7 +30615,7 @@
         <v>3.7556010934491902E-6</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>49</v>
       </c>
@@ -30634,7 +30666,7 @@
         <v>1.3180758184354599E-5</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>49</v>
       </c>
@@ -30685,7 +30717,7 @@
         <v>9.1572012187839303E-5</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>49</v>
       </c>
@@ -30736,7 +30768,7 @@
         <v>-1.02762360511654E-6</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>49</v>
       </c>
@@ -30787,7 +30819,7 @@
         <v>4.1343677101401899E-7</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>49</v>
       </c>
@@ -30838,7 +30870,7 @@
         <v>3.9642789903382394E-6</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>49</v>
       </c>
@@ -30889,7 +30921,7 @@
         <v>6.8767132941793809E-7</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>49</v>
       </c>
@@ -30940,7 +30972,7 @@
         <v>-2.90949451681399E-6</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>49</v>
       </c>
@@ -30991,7 +31023,7 @@
         <v>-0.89265767073808899</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>49</v>
       </c>
@@ -31042,7 +31074,7 @@
         <v>2.75724997590032E-5</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>49</v>
       </c>
@@ -31112,7 +31144,7 @@
       <c r="F209" s="1">
         <v>-5.1370556083999302E-6</v>
       </c>
-      <c r="G209">
+      <c r="G209" s="5">
         <v>-0.31374608121448699</v>
       </c>
       <c r="H209">
@@ -31144,7 +31176,7 @@
         <v>2.5592225061987704E-6</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>49</v>
       </c>
@@ -31195,7 +31227,7 @@
         <v>1.5246994601980599E-7</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>49</v>
       </c>
@@ -31246,7 +31278,7 @@
         <v>5.50881663885505E-8</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>49</v>
       </c>
@@ -31297,7 +31329,7 @@
         <v>1.40512241593837E-6</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>49</v>
       </c>
@@ -31348,7 +31380,7 @@
         <v>-5.9188583886537998E-7</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>49</v>
       </c>
@@ -31399,7 +31431,7 @@
         <v>-1.9899640690823601E-7</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>49</v>
       </c>
@@ -31450,7 +31482,7 @@
         <v>2.0861966750930397E-6</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>49</v>
       </c>
@@ -31501,7 +31533,7 @@
         <v>3.7556010934491902E-6</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>49</v>
       </c>
@@ -31552,7 +31584,7 @@
         <v>1.3180758184354599E-5</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>53</v>
       </c>
@@ -31603,7 +31635,7 @@
         <v>2.42035272900409E-5</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>53</v>
       </c>
@@ -31654,7 +31686,7 @@
         <v>-6.2712367695816296E-6</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>53</v>
       </c>
@@ -31705,7 +31737,7 @@
         <v>1.16814908623474E-6</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>53</v>
       </c>
@@ -31756,7 +31788,7 @@
         <v>3.3784724285656997E-6</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>53</v>
       </c>
@@ -31807,7 +31839,7 @@
         <v>7.3873936661694702E-7</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>53</v>
       </c>
@@ -31858,7 +31890,7 @@
         <v>-4.35573345468398E-6</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>53</v>
       </c>
@@ -31909,7 +31941,7 @@
         <v>1.23859315099394E-6</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>53</v>
       </c>
@@ -31960,7 +31992,7 @@
         <v>9.6073678633956589E-6</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>53</v>
       </c>
@@ -32030,7 +32062,7 @@
       <c r="F227">
         <v>7.5813201501725904E-3</v>
       </c>
-      <c r="G227">
+      <c r="G227" s="5">
         <v>2.7895095579248999</v>
       </c>
       <c r="H227">
@@ -32062,7 +32094,7 @@
         <v>2.0432243028478601E-6</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>53</v>
       </c>
@@ -32113,7 +32145,7 @@
         <v>3.4600457773592497E-7</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>53</v>
       </c>
@@ -32164,7 +32196,7 @@
         <v>2.1206684954222498E-6</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>53</v>
       </c>
@@ -32215,7 +32247,7 @@
         <v>9.6063561257375701E-6</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>53</v>
       </c>
@@ -32266,7 +32298,7 @@
         <v>-1.4098414425944801E-6</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>53</v>
       </c>
@@ -32317,7 +32349,7 @@
         <v>2.23721833680912E-7</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>53</v>
       </c>
@@ -32368,7 +32400,7 @@
         <v>1.36949181790413E-6</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>53</v>
       </c>
@@ -32419,7 +32451,7 @@
         <v>2.3668432190593301E-6</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>53</v>
       </c>
@@ -32470,7 +32502,7 @@
         <v>9.4214861342223294E-6</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>54</v>
       </c>
@@ -32521,7 +32553,7 @@
         <v>7.7225936687454997E-5</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>54</v>
       </c>
@@ -32572,7 +32604,7 @@
         <v>-1.21294640967883E-7</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>54</v>
       </c>
@@ -32623,7 +32655,7 @@
         <v>2.56865824006524E-7</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>54</v>
       </c>
@@ -32674,7 +32706,7 @@
         <v>1.0609656899376299E-5</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>54</v>
       </c>
@@ -32725,7 +32757,7 @@
         <v>4.3990263378645901E-7</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>54</v>
       </c>
@@ -32776,7 +32808,7 @@
         <v>-2.2941345672755601E-6</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>54</v>
       </c>
@@ -32827,7 +32859,7 @@
         <v>4.8160924701612301E-7</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>54</v>
       </c>
@@ -32878,7 +32910,7 @@
         <v>4.0220170653810694E-5</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>54</v>
       </c>
@@ -32948,7 +32980,7 @@
       <c r="F245" s="1">
         <v>7.33021596145E-5</v>
       </c>
-      <c r="G245">
+      <c r="G245" s="5">
         <v>14.0793800123985</v>
       </c>
       <c r="H245">
@@ -32980,7 +33012,7 @@
         <v>3.9551194162612501E-6</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>54</v>
       </c>
@@ -33031,7 +33063,7 @@
         <v>1.5993372172444499E-7</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>54</v>
       </c>
@@ -33082,7 +33114,7 @@
         <v>2.1169449071578501E-6</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>54</v>
       </c>
@@ -33133,7 +33165,7 @@
         <v>3.6458097481206704E-7</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>54</v>
       </c>
@@ -33184,7 +33216,7 @@
         <v>-7.2520611038129304E-7</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>54</v>
       </c>
@@ -33235,7 +33267,7 @@
         <v>1.16346459102523E-7</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>54</v>
       </c>
@@ -33286,7 +33318,7 @@
         <v>2.7474256302895101E-6</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>54</v>
       </c>
@@ -33337,7 +33369,7 @@
         <v>4.8507310722811701E-6</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>54</v>
       </c>
@@ -33388,7 +33420,7 @@
         <v>4.1845580990340595E-6</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>55</v>
       </c>
@@ -33439,7 +33471,7 @@
         <v>3.44784443739598E-5</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>55</v>
       </c>
@@ -33490,7 +33522,7 @@
         <v>-1.03976186029086E-5</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>55</v>
       </c>
@@ -33541,7 +33573,7 @@
         <v>-3.41575461927466E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>55</v>
       </c>
@@ -33592,7 +33624,7 @@
         <v>3.2087191923579803E-6</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>55</v>
       </c>
@@ -33643,7 +33675,7 @@
         <v>-0.66635718499839203</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>55</v>
       </c>
@@ -33694,7 +33726,7 @@
         <v>-3.5214696588781101E-6</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>55</v>
       </c>
@@ -33745,7 +33777,7 @@
         <v>-2.22236179334253E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>55</v>
       </c>
@@ -33796,7 +33828,7 @@
         <v>1.5718835002615999E-5</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>55</v>
       </c>
@@ -33866,7 +33898,7 @@
       <c r="F263">
         <v>9.0916712383977104E-3</v>
       </c>
-      <c r="G263">
+      <c r="G263" s="5">
         <v>0.76757428695542795</v>
       </c>
       <c r="H263">
@@ -33898,7 +33930,7 @@
         <v>1.38585027682824E-6</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>55</v>
       </c>
@@ -33949,7 +33981,7 @@
         <v>-1.23395464274008E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>55</v>
       </c>
@@ -34000,7 +34032,7 @@
         <v>9.9874400535382401E-8</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>55</v>
       </c>
@@ -34051,7 +34083,7 @@
         <v>2.1298110508984801E-5</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>55</v>
       </c>
@@ -34102,7 +34134,7 @@
         <v>-9.3012052040819502E-7</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>55</v>
       </c>
@@ -34153,7 +34185,7 @@
         <v>1.2838462261299801E-7</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>55</v>
       </c>
@@ -34204,7 +34236,7 @@
         <v>-0.33377476090803399</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>55</v>
       </c>
@@ -34255,7 +34287,7 @@
         <v>-3.39181206682794E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>55</v>
       </c>
@@ -34306,7 +34338,7 @@
         <v>8.1035299294285301E-6</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>55</v>
       </c>
@@ -34357,7 +34389,7 @@
         <v>3.44784443739598E-5</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>55</v>
       </c>
@@ -34408,7 +34440,7 @@
         <v>-1.03976186029086E-5</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>55</v>
       </c>
@@ -34459,7 +34491,7 @@
         <v>-3.41575461927466E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>55</v>
       </c>
@@ -34510,7 +34542,7 @@
         <v>3.2087191923579803E-6</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>55</v>
       </c>
@@ -34561,7 +34593,7 @@
         <v>-0.66635718499839203</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>55</v>
       </c>
@@ -34612,7 +34644,7 @@
         <v>-3.5214696588781101E-6</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>55</v>
       </c>
@@ -34663,7 +34695,7 @@
         <v>-2.22236179334253E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>55</v>
       </c>
@@ -34714,7 +34746,7 @@
         <v>1.5718835002615999E-5</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>55</v>
       </c>
@@ -34784,7 +34816,7 @@
       <c r="F281">
         <v>9.0916712383977104E-3</v>
       </c>
-      <c r="G281">
+      <c r="G281" s="5">
         <v>0.76757428695542795</v>
       </c>
       <c r="H281">
@@ -34816,7 +34848,7 @@
         <v>1.38585027682824E-6</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>55</v>
       </c>
@@ -34867,7 +34899,7 @@
         <v>-1.23395464274008E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>55</v>
       </c>
@@ -34918,7 +34950,7 @@
         <v>9.9874400535382401E-8</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>55</v>
       </c>
@@ -34969,7 +35001,7 @@
         <v>2.1298110508984801E-5</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>55</v>
       </c>
@@ -35020,7 +35052,7 @@
         <v>-9.3012052040819502E-7</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>55</v>
       </c>
@@ -35071,7 +35103,7 @@
         <v>1.2838462261299801E-7</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>55</v>
       </c>
@@ -35122,7 +35154,7 @@
         <v>-0.33377476090803399</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>55</v>
       </c>
@@ -35173,7 +35205,7 @@
         <v>-3.39181206682794E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>55</v>
       </c>
@@ -35224,7 +35256,7 @@
         <v>8.1035299294285301E-6</v>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>56</v>
       </c>
@@ -35275,7 +35307,7 @@
         <v>2.2707672115387801E-4</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>56</v>
       </c>
@@ -35326,7 +35358,7 @@
         <v>-1.63096820366637E-6</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>56</v>
       </c>
@@ -35377,7 +35409,7 @@
         <v>1.1065647101293701E-6</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>56</v>
       </c>
@@ -35428,7 +35460,7 @@
         <v>1.36924960167306E-5</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>56</v>
       </c>
@@ -35479,7 +35511,7 @@
         <v>1.7719797369930499E-6</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>56</v>
       </c>
@@ -35530,7 +35562,7 @@
         <v>-1.5112954982407999E-5</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>56</v>
       </c>
@@ -35581,7 +35613,7 @@
         <v>-9.7736210501922298E-4</v>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>56</v>
       </c>
@@ -35632,7 +35664,7 @@
         <v>1.8100261461597699E-5</v>
       </c>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>56</v>
       </c>
@@ -35702,7 +35734,7 @@
       <c r="F299" s="1">
         <v>-1.30006025145235E-5</v>
       </c>
-      <c r="G299" s="1">
+      <c r="G299" s="5">
         <v>-2.7676984294648101E-5</v>
       </c>
       <c r="H299">
@@ -35734,7 +35766,7 @@
         <v>3.46835594586768E-10</v>
       </c>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>56</v>
       </c>
@@ -35785,7 +35817,7 @@
         <v>6.1429086970987704E-7</v>
       </c>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>56</v>
       </c>
@@ -35836,7 +35868,7 @@
         <v>1.0008018082263699E-7</v>
       </c>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>56</v>
       </c>
@@ -35887,7 +35919,7 @@
         <v>2.1440990123377999E-6</v>
       </c>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>56</v>
       </c>
@@ -35938,7 +35970,7 @@
         <v>-5.6342987785740198E-6</v>
       </c>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>56</v>
       </c>
@@ -35989,7 +36021,7 @@
         <v>2.0424534444496403E-6</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>56</v>
       </c>
@@ -36040,7 +36072,7 @@
         <v>2.3400953160201901E-6</v>
       </c>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>56</v>
       </c>
@@ -36091,7 +36123,7 @@
         <v>3.6743210353229401E-6</v>
       </c>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>56</v>
       </c>
@@ -36142,7 +36174,7 @@
         <v>4.0024785821408604E-5</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>58</v>
       </c>
@@ -36193,7 +36225,7 @@
         <v>3.3227849268229105E-5</v>
       </c>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>58</v>
       </c>
@@ -36244,7 +36276,7 @@
         <v>-4.13909275685853E-6</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>58</v>
       </c>
@@ -36295,7 +36327,7 @@
         <v>9.2816862728994909E-7</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>58</v>
       </c>
@@ -36346,7 +36378,7 @@
         <v>3.00474566362396E-6</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>58</v>
       </c>
@@ -36397,7 +36429,7 @@
         <v>1.6661028404740801E-6</v>
       </c>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>58</v>
       </c>
@@ -36448,7 +36480,7 @@
         <v>-0.11580385516974299</v>
       </c>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>58</v>
       </c>
@@ -36499,7 +36531,7 @@
         <v>5.3318918041611506E-7</v>
       </c>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>58</v>
       </c>
@@ -36550,7 +36582,7 @@
         <v>1.37104978607283E-5</v>
       </c>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>58</v>
       </c>
@@ -36620,7 +36652,7 @@
       <c r="F317">
         <v>4.3619922439859203E-3</v>
       </c>
-      <c r="G317">
+      <c r="G317" s="5">
         <v>5.4151390407595097E-3</v>
       </c>
       <c r="H317">
@@ -36652,7 +36684,7 @@
         <v>2.7553137214950803E-9</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>58</v>
       </c>
@@ -36703,7 +36735,7 @@
         <v>1.7659182358187298E-7</v>
       </c>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>58</v>
       </c>
@@ -36754,7 +36786,7 @@
         <v>1.4654533122992998E-7</v>
       </c>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>58</v>
       </c>
@@ -36805,7 +36837,7 @@
         <v>1.0549300718167802E-5</v>
       </c>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>58</v>
       </c>
@@ -36856,7 +36888,7 @@
         <v>-4.9490227276294206E-7</v>
       </c>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>58</v>
       </c>
@@ -36907,7 +36939,7 @@
         <v>-2.64885401008996E-7</v>
       </c>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>58</v>
       </c>
@@ -36958,7 +36990,7 @@
         <v>1.21178545041678E-6</v>
       </c>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>58</v>
       </c>
@@ -37009,7 +37041,7 @@
         <v>2.1442466997978401E-6</v>
       </c>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>58</v>
       </c>
@@ -37060,7 +37092,7 @@
         <v>1.17437461498326E-5</v>
       </c>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>58</v>
       </c>
@@ -37111,7 +37143,7 @@
         <v>3.3227849268229105E-5</v>
       </c>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>58</v>
       </c>
@@ -37162,7 +37194,7 @@
         <v>-4.13909275685853E-6</v>
       </c>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>58</v>
       </c>
@@ -37213,7 +37245,7 @@
         <v>9.2816862728994909E-7</v>
       </c>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>58</v>
       </c>
@@ -37264,7 +37296,7 @@
         <v>3.00474566362396E-6</v>
       </c>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>58</v>
       </c>
@@ -37315,7 +37347,7 @@
         <v>1.6661028404740801E-6</v>
       </c>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>58</v>
       </c>
@@ -37366,7 +37398,7 @@
         <v>-0.11580385516974299</v>
       </c>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>58</v>
       </c>
@@ -37417,7 +37449,7 @@
         <v>5.3318918041611506E-7</v>
       </c>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>58</v>
       </c>
@@ -37468,7 +37500,7 @@
         <v>1.37104978607283E-5</v>
       </c>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>58</v>
       </c>
@@ -37538,7 +37570,7 @@
       <c r="F335">
         <v>4.3619922439859203E-3</v>
       </c>
-      <c r="G335">
+      <c r="G335" s="5">
         <v>5.4151390407595097E-3</v>
       </c>
       <c r="H335">
@@ -37570,7 +37602,7 @@
         <v>2.7553137214950803E-9</v>
       </c>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>58</v>
       </c>
@@ -37621,7 +37653,7 @@
         <v>1.7659182358187298E-7</v>
       </c>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>58</v>
       </c>
@@ -37672,7 +37704,7 @@
         <v>1.4654533122992998E-7</v>
       </c>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>58</v>
       </c>
@@ -37723,7 +37755,7 @@
         <v>1.0549300718167802E-5</v>
       </c>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>58</v>
       </c>
@@ -37774,7 +37806,7 @@
         <v>-4.9490227276294206E-7</v>
       </c>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>58</v>
       </c>
@@ -37825,7 +37857,7 @@
         <v>-2.64885401008996E-7</v>
       </c>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>58</v>
       </c>
@@ -37876,7 +37908,7 @@
         <v>1.21178545041678E-6</v>
       </c>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>58</v>
       </c>
@@ -37927,7 +37959,7 @@
         <v>2.1442466997978401E-6</v>
       </c>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>58</v>
       </c>
@@ -37978,7 +38010,7 @@
         <v>1.17437461498326E-5</v>
       </c>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>59</v>
       </c>
@@ -38029,7 +38061,7 @@
         <v>-7.9244795952604295E-6</v>
       </c>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>59</v>
       </c>
@@ -38080,7 +38112,7 @@
         <v>-5.4076974135241996E-6</v>
       </c>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>59</v>
       </c>
@@ -38131,7 +38163,7 @@
         <v>1.11845483893091E-6</v>
       </c>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>59</v>
       </c>
@@ -38182,7 +38214,7 @@
         <v>-0.67463029904202798</v>
       </c>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>59</v>
       </c>
@@ -38233,7 +38265,7 @@
         <v>2.20438723879112E-6</v>
       </c>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>59</v>
       </c>
@@ -38284,7 +38316,7 @@
         <v>-3.3012792520281598E-6</v>
       </c>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>59</v>
       </c>
@@ -38335,7 +38367,7 @@
         <v>1.2208822498038702E-6</v>
       </c>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>59</v>
       </c>
@@ -38386,7 +38418,7 @@
         <v>1.9750977623402803E-5</v>
       </c>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>59</v>
       </c>
@@ -38456,7 +38488,7 @@
       <c r="F353">
         <v>2.2617131782141E-3</v>
       </c>
-      <c r="G353">
+      <c r="G353" s="5">
         <v>6.2348626597092602E-3</v>
       </c>
       <c r="H353">
@@ -38488,7 +38520,7 @@
         <v>4.6141915743987103E-9</v>
       </c>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>59</v>
       </c>
@@ -38539,7 +38571,7 @@
         <v>2.64055137044749E-7</v>
       </c>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>59</v>
       </c>
@@ -38590,7 +38622,7 @@
         <v>2.6082782800251801E-7</v>
       </c>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>59</v>
       </c>
@@ -38641,7 +38673,7 @@
         <v>1.51526566460891E-5</v>
       </c>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>59</v>
       </c>
@@ -38692,7 +38724,7 @@
         <v>-4.4382420576027901E-7</v>
       </c>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>59</v>
       </c>
@@ -38743,7 +38775,7 @@
         <v>-1.6315541540024001E-7</v>
       </c>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>59</v>
       </c>
@@ -38794,7 +38826,7 @@
         <v>-5.1733903646938299E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>59</v>
       </c>
@@ -38845,7 +38877,7 @@
         <v>-7.7397790927959897E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>59</v>
       </c>
@@ -38896,7 +38928,7 @@
         <v>1.0188892138316399E-5</v>
       </c>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>60</v>
       </c>
@@ -38947,7 +38979,7 @@
         <v>3.6142920596091702E-5</v>
       </c>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>60</v>
       </c>
@@ -38998,7 +39030,7 @@
         <v>-5.95727197586271E-6</v>
       </c>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>60</v>
       </c>
@@ -39049,7 +39081,7 @@
         <v>-1.7080928471468099E-2</v>
       </c>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>60</v>
       </c>
@@ -39100,7 +39132,7 @@
         <v>-0.72518499607706199</v>
       </c>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>60</v>
       </c>
@@ -39151,7 +39183,7 @@
         <v>3.0194833987806596E-6</v>
       </c>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>60</v>
       </c>
@@ -39202,7 +39234,7 @@
         <v>-6.1533154227078005E-6</v>
       </c>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>60</v>
       </c>
@@ -39253,7 +39285,7 @@
         <v>-3.06473045620692E-2</v>
       </c>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>60</v>
       </c>
@@ -39304,7 +39336,7 @@
         <v>1.7169384713895301E-5</v>
       </c>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>60</v>
       </c>
@@ -39374,7 +39406,7 @@
       <c r="F371">
         <v>5.7061259048651804E-4</v>
       </c>
-      <c r="G371">
+      <c r="G371" s="5">
         <v>1.33676780396784E-3</v>
       </c>
       <c r="H371">
@@ -39406,7 +39438,7 @@
         <v>4.7064673543606598E-9</v>
       </c>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>60</v>
       </c>
@@ -39457,7 +39489,7 @@
         <v>-3.6461277694133001E-2</v>
       </c>
     </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>60</v>
       </c>
@@ -39508,7 +39540,7 @@
         <v>3.1478193984857397E-7</v>
       </c>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>60</v>
       </c>
@@ -39559,7 +39591,7 @@
         <v>1.6582806236975502E-5</v>
       </c>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>60</v>
       </c>
@@ -39610,7 +39642,7 @@
         <v>-9.7746125391040489E-7</v>
       </c>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>60</v>
       </c>
@@ -39661,7 +39693,7 @@
         <v>5.1658419550903998E-8</v>
       </c>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>60</v>
       </c>
@@ -39712,7 +39744,7 @@
         <v>-0.14844402769839901</v>
       </c>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>60</v>
       </c>
@@ -39763,7 +39795,7 @@
         <v>-0.157756729702235</v>
       </c>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>60</v>
       </c>
@@ -39815,6 +39847,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q379" xr:uid="{988ABF5B-632F-4DFF-82FB-80E06CE7C07C}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="('ReCiPe Midpoint (H)', 'metal depletion', 'MDP')"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="M1:M1048576">
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -39855,17 +39894,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE3FBF8-9904-4E65-8D02-01A3DBCF798E}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q379"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:Q73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G245" sqref="A245:G245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="61.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="12" width="8.7265625" customWidth="1"/>
     <col min="17" max="17" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
@@ -39916,7 +39956,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -39967,7 +40007,7 @@
         <v>-0.475123012849547</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -40018,7 +40058,7 @@
         <v>-8.6476012247409497E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -40069,7 +40109,7 @@
         <v>-0.930495102863097</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -40120,7 +40160,7 @@
         <v>-0.111262159733881</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -40171,7 +40211,7 @@
         <v>-3.8679713203397401E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -40222,7 +40262,7 @@
         <v>-1.2114011882391799E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -40273,7 +40313,7 @@
         <v>-0.95464775723491502</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -40324,7 +40364,7 @@
         <v>3.8209394553447801E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -40394,7 +40434,7 @@
       <c r="F11">
         <v>2.49056322979157E-2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="4">
         <v>4.30394199315665E-2</v>
       </c>
       <c r="H11">
@@ -40426,7 +40466,7 @@
         <v>-7.25773858044342E-8</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -40477,7 +40517,7 @@
         <v>-0.96222049772777096</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -40528,7 +40568,7 @@
         <v>-1.4820098642276401E-6</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -40579,7 +40619,7 @@
         <v>8.8670600804627799E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -40630,7 +40670,7 @@
         <v>-4.2450813545968899E-6</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -40681,7 +40721,7 @@
         <v>-5.0349640260804993E-6</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -40732,7 +40772,7 @@
         <v>-1.92423666316662E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -40783,7 +40823,7 @@
         <v>-2.1570086763725901E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -40834,7 +40874,7 @@
         <v>-9.8901931251660296E-6</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -40885,7 +40925,7 @@
         <v>-9.1218733581642897E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -40936,7 +40976,7 @@
         <v>-8.0896080472570005E-7</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -40987,7 +41027,7 @@
         <v>-2.0475423458223001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -41038,7 +41078,7 @@
         <v>-5.4958059992854698E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -41089,7 +41129,7 @@
         <v>-6.2461095447163806E-7</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -41140,7 +41180,7 @@
         <v>-9.3067696051818405E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -41191,7 +41231,7 @@
         <v>-0.16134067188212101</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -41242,7 +41282,7 @@
         <v>1.2996175256887401E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -41312,7 +41352,7 @@
       <c r="F29">
         <v>3.89497675667982E-3</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="4">
         <v>1.9867450608816301E-2</v>
       </c>
       <c r="H29">
@@ -41344,7 +41384,7 @@
         <v>-3.45912976798534E-8</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -41395,7 +41435,7 @@
         <v>-0.22251680671076102</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -41446,7 +41486,7 @@
         <v>-8.2127376376472897E-7</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -41497,7 +41537,7 @@
         <v>8.7875518772495496E-6</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -41548,7 +41588,7 @@
         <v>-6.5984582069056297E-6</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -41599,7 +41639,7 @@
         <v>-1.5039330942778699E-6</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -41650,7 +41690,7 @@
         <v>-7.5174987065605302E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -41701,7 +41741,7 @@
         <v>-1.51152808718617E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -41752,7 +41792,7 @@
         <v>-2.5125404025772003E-6</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -41803,7 +41843,7 @@
         <v>-2.80703627927954E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -41854,7 +41894,7 @@
         <v>-1.2009853495831201E-6</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -41905,7 +41945,7 @@
         <v>-1.5096990590253101E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -41956,7 +41996,7 @@
         <v>-4.54344734494651E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -42007,7 +42047,7 @@
         <v>2.4411452583361598E-7</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -42058,7 +42098,7 @@
         <v>-7.2639395155604803E-6</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -42109,7 +42149,7 @@
         <v>-1.3915184056544999E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -42160,7 +42200,7 @@
         <v>2.3235489736350699E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -42230,7 +42270,7 @@
       <c r="F47">
         <v>4.6936319383362901E-2</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="4">
         <v>5.8876720140179098E-2</v>
       </c>
       <c r="H47">
@@ -42262,7 +42302,7 @@
         <v>-5.4691217099903099E-8</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>39</v>
       </c>
@@ -42313,7 +42353,7 @@
         <v>-1.71465845415852E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>39</v>
       </c>
@@ -42364,7 +42404,7 @@
         <v>-8.8467475872988606E-7</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -42415,7 +42455,7 @@
         <v>1.2877211600676999E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>39</v>
       </c>
@@ -42466,7 +42506,7 @@
         <v>-5.1091501945776897E-6</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -42517,7 +42557,7 @@
         <v>-1.1922908471140301E-6</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -42568,7 +42608,7 @@
         <v>-4.1203015210784598E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>39</v>
       </c>
@@ -42619,7 +42659,7 @@
         <v>-7.9860817878794609E-5</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>39</v>
       </c>
@@ -42670,7 +42710,7 @@
         <v>-1.6433845696006699E-6</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>40</v>
       </c>
@@ -42721,7 +42761,7 @@
         <v>6.3403680144347097E-6</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>40</v>
       </c>
@@ -42772,7 +42812,7 @@
         <v>-2.9341429877521798E-6</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>40</v>
       </c>
@@ -42823,7 +42863,7 @@
         <v>8.3342593711677101E-7</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>40</v>
       </c>
@@ -42874,7 +42914,7 @@
         <v>9.3636455941459308E-8</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>40</v>
       </c>
@@ -42925,7 +42965,7 @@
         <v>1.61916867513767E-6</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>40</v>
       </c>
@@ -42976,7 +43016,7 @@
         <v>-7.3725755177544899E-6</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>40</v>
       </c>
@@ -43027,7 +43067,7 @@
         <v>-1.6116721560432899E-6</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>40</v>
       </c>
@@ -43078,7 +43118,7 @@
         <v>2.09572330217611E-5</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>40</v>
       </c>
@@ -43148,7 +43188,7 @@
       <c r="F65">
         <v>6.2115975188170504E-4</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="4">
         <v>1.2366079631583199E-2</v>
       </c>
       <c r="H65">
@@ -43180,7 +43220,7 @@
         <v>-2.4182531942959397E-8</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>40</v>
       </c>
@@ -43231,7 +43271,7 @@
         <v>-1.2287821953549302E-6</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>40</v>
       </c>
@@ -43282,7 +43322,7 @@
         <v>-7.8340017117817198E-7</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -43333,7 +43373,7 @@
         <v>7.8986287025895004E-6</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>40</v>
       </c>
@@ -43384,7 +43424,7 @@
         <v>-8.1071031245727397E-6</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>40</v>
       </c>
@@ -43435,7 +43475,7 @@
         <v>-3.0269021578988001E-6</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>40</v>
       </c>
@@ -43486,7 +43526,7 @@
         <v>-2.5893410881619398E-8</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -43537,7 +43577,7 @@
         <v>-1.3011883817012899E-8</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>40</v>
       </c>
@@ -43588,7 +43628,7 @@
         <v>-2.1540069198699899E-6</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>42</v>
       </c>
@@ -43639,7 +43679,7 @@
         <v>8.5989155495269607E-6</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>42</v>
       </c>
@@ -43690,7 +43730,7 @@
         <v>-6.1143302874633299E-6</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>42</v>
       </c>
@@ -43741,7 +43781,7 @@
         <v>1.39200466306999E-6</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>42</v>
       </c>
@@ -43792,7 +43832,7 @@
         <v>2.1922620507153199E-7</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>42</v>
       </c>
@@ -43843,7 +43883,7 @@
         <v>2.9351458931792203E-6</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>42</v>
       </c>
@@ -43894,7 +43934,7 @@
         <v>-1.0743203437695299E-5</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>42</v>
       </c>
@@ -43945,7 +43985,7 @@
         <v>-2.22648149930115E-6</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>42</v>
       </c>
@@ -43996,7 +44036,7 @@
         <v>4.4532999588682199E-5</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>42</v>
       </c>
@@ -44066,7 +44106,7 @@
       <c r="F83">
         <v>1.6591759793286E-2</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="4">
         <v>4.5968772771705399E-2</v>
       </c>
       <c r="H83">
@@ -44098,7 +44138,7 @@
         <v>-5.1485758982353003E-8</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>42</v>
       </c>
@@ -44149,7 +44189,7 @@
         <v>-1.8966841387646402E-6</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>42</v>
       </c>
@@ -44200,7 +44240,7 @@
         <v>-1.6678040240769501E-6</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>42</v>
       </c>
@@ -44251,7 +44291,7 @@
         <v>1.6577986078014599E-5</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>42</v>
       </c>
@@ -44302,7 +44342,7 @@
         <v>-4.4881201171875707E-6</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>42</v>
       </c>
@@ -44353,7 +44393,7 @@
         <v>-3.7217275519152398E-6</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>42</v>
       </c>
@@ -44404,7 +44444,7 @@
         <v>-6.0109917314754495E-8</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>42</v>
       </c>
@@ -44455,7 +44495,7 @@
         <v>-2.8665618712897502E-8</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>42</v>
       </c>
@@ -44506,7 +44546,7 @@
         <v>-2.4877613968143899E-6</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>40</v>
       </c>
@@ -44557,7 +44597,7 @@
         <v>6.3403680144347097E-6</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>40</v>
       </c>
@@ -44608,7 +44648,7 @@
         <v>-2.9341429877521798E-6</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>40</v>
       </c>
@@ -44659,7 +44699,7 @@
         <v>8.3342593711677101E-7</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>40</v>
       </c>
@@ -44710,7 +44750,7 @@
         <v>9.3636455941459308E-8</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>40</v>
       </c>
@@ -44761,7 +44801,7 @@
         <v>1.61916867513767E-6</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>40</v>
       </c>
@@ -44812,7 +44852,7 @@
         <v>-7.3725755177544899E-6</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>40</v>
       </c>
@@ -44863,7 +44903,7 @@
         <v>-1.6116721560432899E-6</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>40</v>
       </c>
@@ -44914,7 +44954,7 @@
         <v>2.09572330217611E-5</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>40</v>
       </c>
@@ -44984,7 +45024,7 @@
       <c r="F101">
         <v>6.2115975188170504E-4</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="4">
         <v>1.2366079631583199E-2</v>
       </c>
       <c r="H101">
@@ -45016,7 +45056,7 @@
         <v>-2.4182531942959397E-8</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>40</v>
       </c>
@@ -45067,7 +45107,7 @@
         <v>-1.2287821953549302E-6</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>40</v>
       </c>
@@ -45118,7 +45158,7 @@
         <v>-7.8340017117817198E-7</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>40</v>
       </c>
@@ -45169,7 +45209,7 @@
         <v>7.8986287025895004E-6</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>40</v>
       </c>
@@ -45220,7 +45260,7 @@
         <v>-8.1071031245727397E-6</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>40</v>
       </c>
@@ -45271,7 +45311,7 @@
         <v>-3.0269021578988001E-6</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>40</v>
       </c>
@@ -45322,7 +45362,7 @@
         <v>-2.5893410881619398E-8</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>40</v>
       </c>
@@ -45373,7 +45413,7 @@
         <v>-1.3011883817012899E-8</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>40</v>
       </c>
@@ -45424,7 +45464,7 @@
         <v>-2.1540069198699899E-6</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>44</v>
       </c>
@@ -45475,7 +45515,7 @@
         <v>-0.173215112089526</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>44</v>
       </c>
@@ -45526,7 +45566,7 @@
         <v>-6.4239970086199502E-6</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>44</v>
       </c>
@@ -45577,7 +45617,7 @@
         <v>-0.70639352939941003</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>44</v>
       </c>
@@ -45628,7 +45668,7 @@
         <v>-5.0276074955838405E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>44</v>
       </c>
@@ -45679,7 +45719,7 @@
         <v>2.0894699552442801E-6</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>44</v>
       </c>
@@ -45730,7 +45770,7 @@
         <v>-3.8963282854115801E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>44</v>
       </c>
@@ -45781,7 +45821,7 @@
         <v>-0.898947641920541</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>44</v>
       </c>
@@ -45832,7 +45872,7 @@
         <v>1.23150387085502E-5</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>44</v>
       </c>
@@ -45902,7 +45942,7 @@
       <c r="F119">
         <v>5.4950951149450502E-3</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="4">
         <v>1.9191215699573001E-2</v>
       </c>
       <c r="H119">
@@ -45934,7 +45974,7 @@
         <v>-5.7287580611797798E-8</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>44</v>
       </c>
@@ -45985,7 +46025,7 @@
         <v>-0.93597338972447897</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>44</v>
       </c>
@@ -46036,7 +46076,7 @@
         <v>-1.6006943566448901E-6</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>44</v>
       </c>
@@ -46087,7 +46127,7 @@
         <v>1.39340255645792E-5</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>44</v>
       </c>
@@ -46138,7 +46178,7 @@
         <v>-4.6653317742339999E-6</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>44</v>
       </c>
@@ -46189,7 +46229,7 @@
         <v>-2.5177536485465601E-6</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>44</v>
       </c>
@@ -46240,7 +46280,7 @@
         <v>-2.70400347964394E-5</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>44</v>
       </c>
@@ -46291,7 +46331,7 @@
         <v>-3.13853525620343E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>44</v>
       </c>
@@ -46342,7 +46382,7 @@
         <v>-2.6247350053587501E-6</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>45</v>
       </c>
@@ -46393,7 +46433,7 @@
         <v>-0.89227829051382901</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>45</v>
       </c>
@@ -46444,7 +46484,7 @@
         <v>-2.4150096995566301E-6</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>45</v>
       </c>
@@ -46495,7 +46535,7 @@
         <v>-0.80471716200478793</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>45</v>
       </c>
@@ -46546,7 +46586,7 @@
         <v>-1.5999549112389499E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>45</v>
       </c>
@@ -46597,7 +46637,7 @@
         <v>-0.78155182170462889</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>45</v>
       </c>
@@ -46648,7 +46688,7 @@
         <v>-0.35151084450102899</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>45</v>
       </c>
@@ -46699,7 +46739,7 @@
         <v>-0.74066056576821793</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>45</v>
       </c>
@@ -46750,7 +46790,7 @@
         <v>8.0773843207104699E-6</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>45</v>
       </c>
@@ -46820,7 +46860,7 @@
       <c r="F137" s="1">
         <v>-2.74821446146766E-5</v>
       </c>
-      <c r="G137">
+      <c r="G137" s="4">
         <v>-2.6783980038008002E-3</v>
       </c>
       <c r="H137">
@@ -46852,7 +46892,7 @@
         <v>-9.0484903786801505E-8</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>45</v>
       </c>
@@ -46903,7 +46943,7 @@
         <v>-0.80837211027031797</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>45</v>
       </c>
@@ -46954,7 +46994,7 @@
         <v>-8.3655902152912597E-6</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>45</v>
       </c>
@@ -47005,7 +47045,7 @@
         <v>7.0500107598285905E-6</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>45</v>
       </c>
@@ -47056,7 +47096,7 @@
         <v>-8.3310207830633505E-6</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>45</v>
       </c>
@@ -47107,7 +47147,7 @@
         <v>-1.1657540496320901E-6</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>45</v>
       </c>
@@ -47158,7 +47198,7 @@
         <v>-1.1280826562232501E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>45</v>
       </c>
@@ -47209,7 +47249,7 @@
         <v>-0.138397492164059</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>45</v>
       </c>
@@ -47260,7 +47300,7 @@
         <v>-1.66136156088958E-6</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>47</v>
       </c>
@@ -47311,7 +47351,7 @@
         <v>-7.4376294684660406E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>47</v>
       </c>
@@ -47362,7 +47402,7 @@
         <v>-1.1808098892109799E-5</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>47</v>
       </c>
@@ -47413,7 +47453,7 @@
         <v>-0.44009422995033098</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>47</v>
       </c>
@@ -47464,7 +47504,7 @@
         <v>-1.6877226186382099E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>47</v>
       </c>
@@ -47515,7 +47555,7 @@
         <v>-0.43944528522698101</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>47</v>
       </c>
@@ -47566,7 +47606,7 @@
         <v>-0.18777930420093403</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>47</v>
       </c>
@@ -47617,7 +47657,7 @@
         <v>-0.45200928925489697</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>47</v>
       </c>
@@ -47668,7 +47708,7 @@
         <v>2.5323315338567902E-5</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>47</v>
       </c>
@@ -47738,7 +47778,7 @@
       <c r="F155">
         <v>-6.8901987113587602E-3</v>
       </c>
-      <c r="G155">
+      <c r="G155" s="4">
         <v>-4.5004169152801497E-2</v>
       </c>
       <c r="H155">
@@ -47770,7 +47810,7 @@
         <v>-5.2304946440158401E-7</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>47</v>
       </c>
@@ -47821,7 +47861,7 @@
         <v>-0.50871225480126692</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>47</v>
       </c>
@@ -47872,7 +47912,7 @@
         <v>-1.7113016232315199E-5</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>47</v>
       </c>
@@ -47923,7 +47963,7 @@
         <v>2.6810849721788902E-5</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>47</v>
       </c>
@@ -47974,7 +48014,7 @@
         <v>-2.1005009525154601E-5</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>47</v>
       </c>
@@ -48025,7 +48065,7 @@
         <v>-2.8036386647922704E-6</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>47</v>
       </c>
@@ -48076,7 +48116,7 @@
         <v>-8.5155162872393998E-6</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>47</v>
       </c>
@@ -48127,7 +48167,7 @@
         <v>-7.7315139383665396E-4</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>47</v>
       </c>
@@ -48178,7 +48218,7 @@
         <v>-3.3805512923379401E-6</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>48</v>
       </c>
@@ -48220,7 +48260,7 @@
         <v>-3.3805512923379401E-6</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>48</v>
       </c>
@@ -48262,7 +48302,7 @@
         <v>-3.3805512923379401E-6</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>48</v>
       </c>
@@ -48304,7 +48344,7 @@
         <v>-3.3805512923379401E-6</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>48</v>
       </c>
@@ -48346,7 +48386,7 @@
         <v>-3.3805512923379401E-6</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>48</v>
       </c>
@@ -48388,7 +48428,7 @@
         <v>-3.3805512923379401E-6</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>48</v>
       </c>
@@ -48430,7 +48470,7 @@
         <v>-3.3805512923379401E-6</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>48</v>
       </c>
@@ -48472,7 +48512,7 @@
         <v>-3.3805512923379401E-6</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>48</v>
       </c>
@@ -48514,7 +48554,7 @@
         <v>-3.3805512923379401E-6</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>48</v>
       </c>
@@ -48575,7 +48615,7 @@
       <c r="F173">
         <v>-2.8343255118556899E-4</v>
       </c>
-      <c r="G173">
+      <c r="G173" s="4">
         <v>-2.6100777991357399E-4</v>
       </c>
       <c r="H173">
@@ -48598,7 +48638,7 @@
         <v>-3.3805512923379401E-6</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>48</v>
       </c>
@@ -48640,7 +48680,7 @@
         <v>-3.3805512923379401E-6</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>48</v>
       </c>
@@ -48682,7 +48722,7 @@
         <v>-3.3805512923379401E-6</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>48</v>
       </c>
@@ -48724,7 +48764,7 @@
         <v>-3.3805512923379401E-6</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>48</v>
       </c>
@@ -48766,7 +48806,7 @@
         <v>-3.3805512923379401E-6</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>48</v>
       </c>
@@ -48808,7 +48848,7 @@
         <v>-3.3805512923379401E-6</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>48</v>
       </c>
@@ -48850,7 +48890,7 @@
         <v>-3.3805512923379401E-6</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>48</v>
       </c>
@@ -48892,7 +48932,7 @@
         <v>-3.3805512923379401E-6</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>48</v>
       </c>
@@ -48934,7 +48974,7 @@
         <v>-3.3805512923379401E-6</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>49</v>
       </c>
@@ -48985,7 +49025,7 @@
         <v>1.2999903786806001E-4</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>49</v>
       </c>
@@ -49036,7 +49076,7 @@
         <v>-4.68282446569323E-6</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>49</v>
       </c>
@@ -49087,7 +49127,7 @@
         <v>8.6791846178435604E-7</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>49</v>
       </c>
@@ -49138,7 +49178,7 @@
         <v>2.6077354317166601E-6</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>49</v>
       </c>
@@ -49189,7 +49229,7 @@
         <v>2.2309162483524701E-6</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>49</v>
       </c>
@@ -49240,7 +49280,7 @@
         <v>-1.1126718887628499E-5</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>49</v>
       </c>
@@ -49291,7 +49331,7 @@
         <v>-0.89354302131868901</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>49</v>
       </c>
@@ -49342,7 +49382,7 @@
         <v>5.6151234653896105E-5</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>49</v>
       </c>
@@ -49412,7 +49452,7 @@
       <c r="F191" s="1">
         <v>-1.02242858528E-5</v>
       </c>
-      <c r="G191">
+      <c r="G191" s="4">
         <v>-0.63400912158858203</v>
       </c>
       <c r="H191">
@@ -49444,7 +49484,7 @@
         <v>-5.3496777529104998E-6</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>49</v>
       </c>
@@ -49495,7 +49535,7 @@
         <v>-1.8048914593471401E-6</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>49</v>
       </c>
@@ -49546,7 +49586,7 @@
         <v>-1.9786962532242199E-6</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>49</v>
       </c>
@@ -49597,7 +49637,7 @@
         <v>4.8260133328122103E-6</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>49</v>
       </c>
@@ -49648,7 +49688,7 @@
         <v>-4.4878614993848401E-6</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>49</v>
       </c>
@@ -49699,7 +49739,7 @@
         <v>-4.5833324074529002E-6</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>49</v>
       </c>
@@ -49750,7 +49790,7 @@
         <v>-4.0083404676849402E-6</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>49</v>
       </c>
@@ -49801,7 +49841,7 @@
         <v>-1.5124876066963101E-6</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>49</v>
       </c>
@@ -49852,7 +49892,7 @@
         <v>-5.6529111246383899E-6</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>49</v>
       </c>
@@ -49903,7 +49943,7 @@
         <v>1.2999903786806001E-4</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>49</v>
       </c>
@@ -49954,7 +49994,7 @@
         <v>-4.68282446569323E-6</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>49</v>
       </c>
@@ -50005,7 +50045,7 @@
         <v>8.6791846178435604E-7</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>49</v>
       </c>
@@ -50056,7 +50096,7 @@
         <v>2.6077354317166601E-6</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>49</v>
       </c>
@@ -50107,7 +50147,7 @@
         <v>2.2309162483524701E-6</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>49</v>
       </c>
@@ -50158,7 +50198,7 @@
         <v>-1.1126718887628499E-5</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>49</v>
       </c>
@@ -50209,7 +50249,7 @@
         <v>-0.89354302131868901</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>49</v>
       </c>
@@ -50260,7 +50300,7 @@
         <v>5.6151234653896105E-5</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>49</v>
       </c>
@@ -50330,7 +50370,7 @@
       <c r="F209" s="1">
         <v>-1.02242858528E-5</v>
       </c>
-      <c r="G209">
+      <c r="G209" s="4">
         <v>-0.63400912158858203</v>
       </c>
       <c r="H209">
@@ -50362,7 +50402,7 @@
         <v>-5.3496777529104998E-6</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>49</v>
       </c>
@@ -50413,7 +50453,7 @@
         <v>-1.8048914593471401E-6</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>49</v>
       </c>
@@ -50464,7 +50504,7 @@
         <v>-1.9786962532242199E-6</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>49</v>
       </c>
@@ -50515,7 +50555,7 @@
         <v>4.8260133328122103E-6</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>49</v>
       </c>
@@ -50566,7 +50606,7 @@
         <v>-4.4878614993848401E-6</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>49</v>
       </c>
@@ -50617,7 +50657,7 @@
         <v>-4.5833324074529002E-6</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>49</v>
       </c>
@@ -50668,7 +50708,7 @@
         <v>-4.0083404676849402E-6</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>49</v>
       </c>
@@ -50719,7 +50759,7 @@
         <v>-1.5124876066963101E-6</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>49</v>
       </c>
@@ -50770,7 +50810,7 @@
         <v>-5.6529111246383899E-6</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>53</v>
       </c>
@@ -50821,7 +50861,7 @@
         <v>2.0521309564855902E-5</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>53</v>
       </c>
@@ -50872,7 +50912,7 @@
         <v>-1.77807889383707E-5</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>53</v>
       </c>
@@ -50923,7 +50963,7 @@
         <v>1.83819760199988E-6</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>53</v>
       </c>
@@ -50974,7 +51014,7 @@
         <v>1.02983990705851E-6</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>53</v>
       </c>
@@ -51025,7 +51065,7 @@
         <v>1.6480938790674999E-6</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>53</v>
       </c>
@@ -51076,7 +51116,7 @@
         <v>-1.2605532620548699E-5</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>53</v>
       </c>
@@ -51127,7 +51167,7 @@
         <v>-2.3976446657059099E-6</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>53</v>
       </c>
@@ -51178,7 +51218,7 @@
         <v>1.5416897624049799E-5</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>53</v>
       </c>
@@ -51248,7 +51288,7 @@
       <c r="F227">
         <v>8.3248965172891803E-3</v>
       </c>
-      <c r="G227">
+      <c r="G227" s="4">
         <v>3.0760182914814198</v>
       </c>
       <c r="H227">
@@ -51280,7 +51320,7 @@
         <v>-3.1257585588218003E-6</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>53</v>
       </c>
@@ -51331,7 +51371,7 @@
         <v>-1.7098183085195701E-6</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>53</v>
       </c>
@@ -51382,7 +51422,7 @@
         <v>-2.4096740746557501E-5</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>53</v>
       </c>
@@ -51433,7 +51473,7 @@
         <v>2.1570656883084499E-5</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>53</v>
       </c>
@@ -51484,7 +51524,7 @@
         <v>-7.6029558759671499E-6</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>53</v>
       </c>
@@ -51535,7 +51575,7 @@
         <v>-4.3284883556060601E-6</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>53</v>
       </c>
@@ -51586,7 +51626,7 @@
         <v>-1.78975574857354E-6</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>53</v>
       </c>
@@ -51637,7 +51677,7 @@
         <v>-8.4678160021667203E-7</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>53</v>
       </c>
@@ -51688,7 +51728,7 @@
         <v>-3.0169041812833E-6</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>54</v>
       </c>
@@ -51739,7 +51779,7 @@
         <v>2.00243681160827E-4</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>54</v>
       </c>
@@ -51790,7 +51830,7 @@
         <v>-3.7745684961121198E-7</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>54</v>
       </c>
@@ -51841,7 +51881,7 @@
         <v>4.2575668412259098E-7</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>54</v>
       </c>
@@ -51892,7 +51932,7 @@
         <v>3.2985617040992499E-6</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>54</v>
       </c>
@@ -51943,7 +51983,7 @@
         <v>1.04961731263841E-6</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>54</v>
       </c>
@@ -51994,7 +52034,7 @@
         <v>-7.4714724123125999E-6</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>54</v>
       </c>
@@ -52045,7 +52085,7 @@
         <v>-1.15929370660516E-6</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>54</v>
       </c>
@@ -52096,7 +52136,7 @@
         <v>4.20284418064511E-4</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>54</v>
       </c>
@@ -52166,7 +52206,7 @@
       <c r="F245" s="1">
         <v>1.9941459718799999E-5</v>
       </c>
-      <c r="G245">
+      <c r="G245" s="4">
         <v>3.9710793337575998</v>
       </c>
       <c r="H245">
@@ -52198,7 +52238,7 @@
         <v>-6.2919850253440007E-6</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>54</v>
       </c>
@@ -52249,7 +52289,7 @@
         <v>-1.16789764024183E-6</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>54</v>
       </c>
@@ -52300,7 +52340,7 @@
         <v>-2.67465192311533E-5</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>54</v>
       </c>
@@ -52351,7 +52391,7 @@
         <v>8.7118960257009891E-7</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>54</v>
       </c>
@@ -52402,7 +52442,7 @@
         <v>-4.1300571650992799E-6</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>54</v>
       </c>
@@ -52453,7 +52493,7 @@
         <v>-2.4437550086009399E-6</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>54</v>
       </c>
@@ -52504,7 +52544,7 @@
         <v>-3.53609586099423E-6</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>54</v>
       </c>
@@ -52555,7 +52595,7 @@
         <v>-1.59489907670007E-6</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>54</v>
       </c>
@@ -52606,7 +52646,7 @@
         <v>-1.5352046767169699E-6</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>55</v>
       </c>
@@ -52657,7 +52697,7 @@
         <v>3.4239793281898302E-5</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>55</v>
       </c>
@@ -52708,7 +52748,7 @@
         <v>-4.0318236226051194E-5</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>55</v>
       </c>
@@ -52759,7 +52799,7 @@
         <v>-3.3931993953689399E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>55</v>
       </c>
@@ -52810,7 +52850,7 @@
         <v>1.5292224138718701E-6</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>55</v>
       </c>
@@ -52861,7 +52901,7 @@
         <v>-0.66400620902620999</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>55</v>
       </c>
@@ -52912,7 +52952,7 @@
         <v>-1.29796069491883E-5</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>55</v>
       </c>
@@ -52963,7 +53003,7 @@
         <v>-2.2257461260313999E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>55</v>
       </c>
@@ -53014,7 +53054,7 @@
         <v>2.8874922327943798E-5</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>55</v>
       </c>
@@ -53084,7 +53124,7 @@
       <c r="F263">
         <v>4.1670516979244098E-3</v>
       </c>
-      <c r="G263">
+      <c r="G263" s="4">
         <v>0.35327694719180103</v>
       </c>
       <c r="H263">
@@ -53116,7 +53156,7 @@
         <v>-2.55707667104587E-6</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>55</v>
       </c>
@@ -53167,7 +53207,7 @@
         <v>-1.23032274833627E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>55</v>
       </c>
@@ -53218,7 +53258,7 @@
         <v>-2.4570354067065998E-6</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>55</v>
       </c>
@@ -53269,7 +53309,7 @@
         <v>6.4955536308053391E-5</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>55</v>
       </c>
@@ -53320,7 +53360,7 @@
         <v>-9.5143294720401103E-6</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>55</v>
       </c>
@@ -53371,7 +53411,7 @@
         <v>-4.41569065944058E-6</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>55</v>
       </c>
@@ -53422,7 +53462,7 @@
         <v>-0.33149112595005498</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>55</v>
       </c>
@@ -53473,7 +53513,7 @@
         <v>-3.35482041730292E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>55</v>
       </c>
@@ -53524,7 +53564,7 @@
         <v>-2.7998035044296501E-6</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>55</v>
       </c>
@@ -53575,7 +53615,7 @@
         <v>3.4239793281898302E-5</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>55</v>
       </c>
@@ -53626,7 +53666,7 @@
         <v>-4.0318236226051194E-5</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>55</v>
       </c>
@@ -53677,7 +53717,7 @@
         <v>-3.3931993953689399E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>55</v>
       </c>
@@ -53728,7 +53768,7 @@
         <v>1.5292224138718701E-6</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>55</v>
       </c>
@@ -53779,7 +53819,7 @@
         <v>-0.66400620902620999</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>55</v>
       </c>
@@ -53830,7 +53870,7 @@
         <v>-1.29796069491883E-5</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>55</v>
       </c>
@@ -53881,7 +53921,7 @@
         <v>-2.2257461260313999E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>55</v>
       </c>
@@ -53932,7 +53972,7 @@
         <v>2.8874922327943798E-5</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>55</v>
       </c>
@@ -54002,7 +54042,7 @@
       <c r="F281">
         <v>4.1670516979244098E-3</v>
       </c>
-      <c r="G281">
+      <c r="G281" s="4">
         <v>0.35327694719180103</v>
       </c>
       <c r="H281">
@@ -54034,7 +54074,7 @@
         <v>-2.55707667104587E-6</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>55</v>
       </c>
@@ -54085,7 +54125,7 @@
         <v>-1.23032274833627E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>55</v>
       </c>
@@ -54136,7 +54176,7 @@
         <v>-2.4570354067065998E-6</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>55</v>
       </c>
@@ -54187,7 +54227,7 @@
         <v>6.4955536308053391E-5</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>55</v>
       </c>
@@ -54238,7 +54278,7 @@
         <v>-9.5143294720401103E-6</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>55</v>
       </c>
@@ -54289,7 +54329,7 @@
         <v>-4.41569065944058E-6</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>55</v>
       </c>
@@ -54340,7 +54380,7 @@
         <v>-0.33149112595005498</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>55</v>
       </c>
@@ -54391,7 +54431,7 @@
         <v>-3.35482041730292E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>55</v>
       </c>
@@ -54442,7 +54482,7 @@
         <v>-2.7998035044296501E-6</v>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>56</v>
       </c>
@@ -54493,7 +54533,7 @@
         <v>2.1807286617217799E-4</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>56</v>
       </c>
@@ -54544,7 +54584,7 @@
         <v>-4.3195508593951695E-6</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>56</v>
       </c>
@@ -54595,7 +54635,7 @@
         <v>1.59657838066595E-6</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>56</v>
       </c>
@@ -54646,7 +54686,7 @@
         <v>3.1498986112588002E-6</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>56</v>
       </c>
@@ -54697,7 +54737,7 @@
         <v>3.4838815616788899E-6</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>56</v>
       </c>
@@ -54748,7 +54788,7 @@
         <v>-4.2087893851347999E-5</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>56</v>
       </c>
@@ -54799,7 +54839,7 @@
         <v>-9.8624770119631606E-4</v>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>56</v>
       </c>
@@ -54850,7 +54890,7 @@
         <v>2.10711626657911E-5</v>
       </c>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>56</v>
       </c>
@@ -54920,7 +54960,7 @@
       <c r="F299" s="1">
         <v>1.0454113095192901E-6</v>
       </c>
-      <c r="G299" s="1">
+      <c r="G299" s="4">
         <v>2.22557693016244E-6</v>
       </c>
       <c r="H299">
@@ -54952,7 +54992,7 @@
         <v>-4.9433175183103101E-10</v>
       </c>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>56</v>
       </c>
@@ -55003,7 +55043,7 @@
         <v>-2.3744045920692697E-6</v>
       </c>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>56</v>
       </c>
@@ -55054,7 +55094,7 @@
         <v>-1.5281602579797401E-6</v>
       </c>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>56</v>
       </c>
@@ -55105,7 +55145,7 @@
         <v>4.1825955150517905E-6</v>
       </c>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>56</v>
       </c>
@@ -55156,7 +55196,7 @@
         <v>-3.0809670771851904E-5</v>
       </c>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>56</v>
       </c>
@@ -55207,7 +55247,7 @@
         <v>-1.4734898399382201E-5</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>56</v>
       </c>
@@ -55258,7 +55298,7 @@
         <v>-2.8426310559748204E-6</v>
       </c>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>56</v>
       </c>
@@ -55309,7 +55349,7 @@
         <v>-1.9166364048439598E-6</v>
       </c>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>56</v>
       </c>
@@ -55360,7 +55400,7 @@
         <v>-1.3429382085581302E-5</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>58</v>
       </c>
@@ -55411,7 +55451,7 @@
         <v>5.0177617403051004E-5</v>
       </c>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>58</v>
       </c>
@@ -55462,7 +55502,7 @@
         <v>-2.18213304343883E-5</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>58</v>
       </c>
@@ -55513,7 +55553,7 @@
         <v>2.3890408053794898E-6</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>58</v>
       </c>
@@ -55564,7 +55604,7 @@
         <v>2.58055447723393E-6</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>58</v>
       </c>
@@ -55615,7 +55655,7 @@
         <v>6.8471653822466097E-6</v>
       </c>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>58</v>
       </c>
@@ -55666,7 +55706,7 @@
         <v>-0.107726485418272</v>
       </c>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>58</v>
       </c>
@@ -55717,7 +55757,7 @@
         <v>-3.7149588427354198E-6</v>
       </c>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>58</v>
       </c>
@@ -55768,7 +55808,7 @@
         <v>3.7739820292017599E-5</v>
       </c>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>58</v>
       </c>
@@ -55838,7 +55878,7 @@
       <c r="F317">
         <v>1.5424813450124399E-3</v>
       </c>
-      <c r="G317">
+      <c r="G317" s="4">
         <v>1.91493146434606E-3</v>
       </c>
       <c r="H317">
@@ -55870,7 +55910,7 @@
         <v>-6.4841292408903006E-9</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>58</v>
       </c>
@@ -55921,7 +55961,7 @@
         <v>-4.8501438599046696E-6</v>
       </c>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>58</v>
       </c>
@@ -55972,7 +56012,7 @@
         <v>-7.8771861233661794E-6</v>
       </c>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>58</v>
       </c>
@@ -56023,7 +56063,7 @@
         <v>4.5261493833845804E-5</v>
       </c>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>58</v>
       </c>
@@ -56074,7 +56114,7 @@
         <v>-5.4121315660893202E-6</v>
       </c>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>58</v>
       </c>
@@ -56125,7 +56165,7 @@
         <v>-5.0531366972084103E-6</v>
       </c>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>58</v>
       </c>
@@ -56176,7 +56216,7 @@
         <v>-2.6044804560854102E-6</v>
       </c>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>58</v>
       </c>
@@ -56227,7 +56267,7 @@
         <v>-8.5532936466847702E-7</v>
       </c>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>58</v>
       </c>
@@ -56278,7 +56318,7 @@
         <v>-5.2260374762358398E-6</v>
       </c>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>58</v>
       </c>
@@ -56329,7 +56369,7 @@
         <v>5.0177617403051004E-5</v>
       </c>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>58</v>
       </c>
@@ -56380,7 +56420,7 @@
         <v>-2.18213304343883E-5</v>
       </c>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>58</v>
       </c>
@@ -56427,11 +56467,11 @@
         <v>57</v>
       </c>
       <c r="Q328" s="3">
-        <f t="shared" ref="Q328:Q391" si="6">M328/100</f>
+        <f t="shared" ref="Q328:Q379" si="6">M328/100</f>
         <v>2.3890408053794898E-6</v>
       </c>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>58</v>
       </c>
@@ -56482,7 +56522,7 @@
         <v>2.58055447723393E-6</v>
       </c>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>58</v>
       </c>
@@ -56533,7 +56573,7 @@
         <v>6.8471653822466097E-6</v>
       </c>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>58</v>
       </c>
@@ -56584,7 +56624,7 @@
         <v>-0.107726485418272</v>
       </c>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>58</v>
       </c>
@@ -56635,7 +56675,7 @@
         <v>-3.7149588427354198E-6</v>
       </c>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>58</v>
       </c>
@@ -56686,7 +56726,7 @@
         <v>3.7739820292017599E-5</v>
       </c>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>58</v>
       </c>
@@ -56756,7 +56796,7 @@
       <c r="F335">
         <v>1.5424813450124399E-3</v>
       </c>
-      <c r="G335">
+      <c r="G335" s="4">
         <v>1.91493146434606E-3</v>
       </c>
       <c r="H335">
@@ -56788,7 +56828,7 @@
         <v>-6.4841292408903006E-9</v>
       </c>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>58</v>
       </c>
@@ -56839,7 +56879,7 @@
         <v>-4.8501438599046696E-6</v>
       </c>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>58</v>
       </c>
@@ -56890,7 +56930,7 @@
         <v>-7.8771861233661794E-6</v>
       </c>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>58</v>
       </c>
@@ -56941,7 +56981,7 @@
         <v>4.5261493833845804E-5</v>
       </c>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>58</v>
       </c>
@@ -56992,7 +57032,7 @@
         <v>-5.4121315660893202E-6</v>
       </c>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>58</v>
       </c>
@@ -57043,7 +57083,7 @@
         <v>-5.0531366972084103E-6</v>
       </c>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>58</v>
       </c>
@@ -57094,7 +57134,7 @@
         <v>-2.6044804560854102E-6</v>
       </c>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>58</v>
       </c>
@@ -57145,7 +57185,7 @@
         <v>-8.5532936466847702E-7</v>
       </c>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>58</v>
       </c>
@@ -57196,7 +57236,7 @@
         <v>-5.2260374762358398E-6</v>
       </c>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>59</v>
       </c>
@@ -57247,7 +57287,7 @@
         <v>-1.7533055489309301E-5</v>
       </c>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>59</v>
       </c>
@@ -57298,7 +57338,7 @@
         <v>-1.6117156118138299E-5</v>
       </c>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>59</v>
       </c>
@@ -57349,7 +57389,7 @@
         <v>1.9440931544068E-6</v>
       </c>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>59</v>
       </c>
@@ -57400,7 +57440,7 @@
         <v>-0.67115876531334606</v>
       </c>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>59</v>
       </c>
@@ -57451,7 +57491,7 @@
         <v>5.1696509736398603E-6</v>
       </c>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>59</v>
       </c>
@@ -57502,7 +57542,7 @@
         <v>-9.087606654922799E-6</v>
       </c>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>59</v>
       </c>
@@ -57553,7 +57593,7 @@
         <v>-2.77405938465591E-6</v>
       </c>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>59</v>
       </c>
@@ -57604,7 +57644,7 @@
         <v>3.4452066294079399E-5</v>
       </c>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>59</v>
       </c>
@@ -57674,7 +57714,7 @@
       <c r="F353">
         <v>2.4861671929130502E-3</v>
       </c>
-      <c r="G353">
+      <c r="G353" s="4">
         <v>6.8536828124190997E-3</v>
       </c>
       <c r="H353">
@@ -57706,7 +57746,7 @@
         <v>-7.2397585481991101E-9</v>
       </c>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>59</v>
       </c>
@@ -57757,7 +57797,7 @@
         <v>-1.8482089900118099E-6</v>
       </c>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>59</v>
       </c>
@@ -57808,7 +57848,7 @@
         <v>-6.0791504466806098E-6</v>
       </c>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>59</v>
       </c>
@@ -57859,7 +57899,7 @@
         <v>3.6033504434398398E-5</v>
       </c>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>59</v>
       </c>
@@ -57910,7 +57950,7 @@
         <v>-1.80306707974864E-6</v>
       </c>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>59</v>
       </c>
@@ -57961,7 +58001,7 @@
         <v>-3.4372371803925702E-6</v>
       </c>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>59</v>
       </c>
@@ -58012,7 +58052,7 @@
         <v>-5.1787543497693406E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>59</v>
       </c>
@@ -58063,7 +58103,7 @@
         <v>-7.7475170428124296E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>59</v>
       </c>
@@ -58114,7 +58154,7 @@
         <v>-3.8140484455562098E-6</v>
       </c>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>60</v>
       </c>
@@ -58165,7 +58205,7 @@
         <v>2.9033741733428497E-5</v>
       </c>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>60</v>
       </c>
@@ -58216,7 +58256,7 @@
         <v>-1.9089731589230199E-5</v>
       </c>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>60</v>
       </c>
@@ -58267,7 +58307,7 @@
         <v>-1.6905375433692599E-2</v>
       </c>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>60</v>
       </c>
@@ -58318,7 +58358,7 @@
         <v>-0.71700611809127002</v>
       </c>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>60</v>
       </c>
@@ -58369,7 +58409,7 @@
         <v>7.4120401471744401E-6</v>
       </c>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>60</v>
       </c>
@@ -58420,7 +58460,7 @@
         <v>-1.7281130718045301E-5</v>
       </c>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>60</v>
       </c>
@@ -58471,7 +58511,7 @@
         <v>-3.0678765316830999E-2</v>
       </c>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>60</v>
       </c>
@@ -58522,7 +58562,7 @@
         <v>2.7320037361562299E-5</v>
       </c>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>60</v>
       </c>
@@ -58592,7 +58632,7 @@
       <c r="F371">
         <v>8.2117316159724396E-4</v>
       </c>
-      <c r="G371">
+      <c r="G371" s="4">
         <v>1.92377338113749E-3</v>
       </c>
       <c r="H371">
@@ -58624,7 +58664,7 @@
         <v>-7.6472695614989302E-9</v>
       </c>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>60</v>
       </c>
@@ -58675,7 +58715,7 @@
         <v>-3.6370464630961503E-2</v>
       </c>
     </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>60</v>
       </c>
@@ -58726,7 +58766,7 @@
         <v>-6.43873383932458E-6</v>
       </c>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>60</v>
       </c>
@@ -58777,7 +58817,7 @@
         <v>4.1244320606818593E-5</v>
       </c>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>60</v>
       </c>
@@ -58828,7 +58868,7 @@
         <v>-5.5617997846724102E-6</v>
       </c>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>60</v>
       </c>
@@ -58879,7 +58919,7 @@
         <v>-4.36605273105517E-6</v>
       </c>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>60</v>
       </c>
@@ -58930,7 +58970,7 @@
         <v>-0.14761082471905701</v>
       </c>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>60</v>
       </c>
@@ -58981,7 +59021,7 @@
         <v>-0.15684569115167502</v>
       </c>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>60</v>
       </c>
@@ -59033,6 +59073,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q379" xr:uid="{1FE3FBF8-9904-4E65-8D02-01A3DBCF798E}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="('ReCiPe Midpoint (H)', 'metal depletion', 'MDP')"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="M1:M1048576">
     <cfRule type="colorScale" priority="2">
       <colorScale>
